--- a/backend/auxiliar/Imagen.astropy-units.xlsx
+++ b/backend/auxiliar/Imagen.astropy-units.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AI40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,12 +586,22 @@
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>ra_resid</t>
+          <t>ra_resid_deg</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>dec_resid</t>
+          <t>dec_resid_deg</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>ra_resid_rad</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>dec_resid_rad</t>
         </is>
       </c>
     </row>
@@ -647,31 +657,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.5206296029513</v>
+        <v>127.5038483219352</v>
       </c>
       <c r="R2" t="n">
-        <v>14.13705360057424</v>
+        <v>14.13666031576845</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': -0.005801837121032077, 'y': -0.07336165503776837, 'z': 0.997288527085387, 'ar': 2.219283556266245, 'dec': 0.24802567248422283, 'ar_deg': 127.15558131684, 'dec_deg': 14.21082424424, 'pmra': -13.849, 'pmdec': -12.252}, 'proper motion': {'ar': 2.219281867196133, 'dec': 0.24802417818954373, 'pmra': -13.849, 'pmdec': -12.252}, 'precession': {'x': -0.5904332643777803, 'y': 0.7693030754438327, 'z': 0.24405191748654348, 'ar': 2.225398082406325, 'dec': 0.2465419277209286, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5904397790797948, 'y': 0.7692873419263693, 'z': 0.24408574893275597, 'ar': 2.2254132896691976, 'dec': 0.24657681420739497, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5905095800113895, 'y': 0.7692414873224966, 'z': 0.24406140640552992, 'ar': 2.2254991775285635, 'dec': 0.24655171252279792, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5906016026427284, 'y': 0.7691134522568253, 'z': 0.24424218413989895, 'ar': 2.2256548507876497, 'dec': 0.24673813186093976, 'R': 49.478508438227486, 'alt': 51.24455515110455}}</t>
+          <t>{'simbad': {'x': -0.005801837121032077, 'y': -0.07336165503776837, 'z': 0.997288527085387, 'ar': 2.219283556266245, 'dec': 0.24802567248422283, 'ar_deg': 127.15558131684, 'dec_deg': 14.21082424424, 'pmra': -13.849, 'pmdec': -12.252}, 'proper motion': {'ar': 2.2192818672267705, 'dec': 0.24802417821664813, 'pmra': -13.849, 'pmdec': -12.252}, 'precession': {'x': -0.5904331750721401, 'y': 0.7693031356727632, 'z': 0.24405194368880923, 'ar': 2.2253979715386283, 'dec': 0.24654195474019852, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.590439717336552, 'y': 0.7692873979111164, 'z': 0.2440857218410705, 'ar': 2.22541320401201, 'dec': 0.24657678627072738, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5905096362961724, 'y': 0.7692414575774184, 'z': 0.24406136397539657, 'ar': 2.2254992422447915, 'dec': 0.24655166876955711, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5903773334145667, 'y': 0.7692877297212579, 'z': 0.24423552790414765, 'ar': 2.2253619621812155, 'dec': 0.2467312677461808, 'R': 46.11217463411252, 'alt': 53.20112188695511}}</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>08h30m4.951s</t>
+          <t>08h30m0.924s</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>+14°08'13.393"</t>
+          <t>+14°08'11.977"</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.22565485078765</v>
+        <v>2.225361962181216</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2467381318609398</v>
+        <v>0.2467312677461808</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -691,25 +701,31 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>08h30m4.951s</t>
+          <t>08h30m0.924s</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>+14°08'13.393"</t>
+          <t>+14°08'11.977"</t>
         </is>
       </c>
       <c r="AD2" t="n">
-        <v>2.22565485078765</v>
+        <v>2.225361962181216</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.2467381318609398</v>
+        <v>0.2467312677461808</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.02274548157892253</v>
+        <v>-1.303091089323487</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.02169687779595372</v>
+        <v>1.242832008337889</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.02274322996209439</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.02169151059466977</v>
       </c>
     </row>
     <row r="3">
@@ -764,31 +780,31 @@
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>128.5474859607495</v>
+        <v>128.5308191342438</v>
       </c>
       <c r="R3" t="n">
-        <v>15.19831958749462</v>
+        <v>15.19817307039932</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.7363031445320357, 'y': -0.5305764043135077, 'z': 0.4199361362612002, 'ar': 2.2371784632056975, 'dec': 0.26659185803803154, 'ar_deg': 128.18088395925, 'dec_deg': 15.274588318129998, 'pmra': -8.118, 'pmdec': -5.872}, 'proper motion': {'ar': 2.237177473107411, 'dec': 0.266591141869377, 'pmra': -8.118, 'pmdec': -5.872}, 'precession': {'x': -0.6012076460726675, 'y': 0.7549273643476144, 'z': 0.26198099332380287, 'ar': 2.243324909307804, 'dec': 0.26507432023107264, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.6012141116123988, 'y': 0.7549107177567438, 'z': 0.2620141221654134, 'ar': 2.2433408957298897, 'dec': 0.26510864819884566, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.6012838551383816, 'y': 0.754863396582355, 'z': 0.2619904159508056, 'ar': 2.243427973492561, 'dec': 0.2650840838853944, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.6013674018211845, 'y': 0.754737651914025, 'z': 0.26216087581891734, 'ar': 2.2435768751762644, 'dec': 0.2652607175721275, 'R': 46.96697045470652, 'alt': 52.69458159868455}}</t>
+          <t>{'simbad': {'x': 0.7363031445320357, 'y': -0.5305764043135077, 'z': 0.4199361362612002, 'ar': 2.2371784632056975, 'dec': 0.26659185803803154, 'ar_deg': 128.18088395925, 'dec_deg': 15.274588318129998, 'pmra': -8.118, 'pmdec': -5.872}, 'proper motion': {'ar': 2.23717747312537, 'dec': 0.26659114188236727, 'pmra': -8.118, 'pmdec': -5.872}, 'precession': {'x': -0.6012075574310625, 'y': 0.7549274256859244, 'z': 0.26198101998999596, 'ar': 2.243324797863925, 'dec': 0.26507434786234224, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.6012140503252071, 'y': 0.7549107755657086, 'z': 0.26201409623594607, 'ar': 2.243340808735694, 'dec': 0.26510862133071444, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.6012839079560837, 'y': 0.7548633705480708, 'z': 0.2619903697426028, 'ar': 2.2434280331086955, 'dec': 0.26508403600474356, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.6011482476056322, 'y': 0.7549130767763624, 'z': 0.26215840805269436, 'ar': 2.2432859841778825, 'dec': 0.26525816036640415, 'R': 45.71049336608338, 'alt': 53.44146582888857}}</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>08h34m11.397s</t>
+          <t>08h34m7.397s</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>+15°11'53.951"</t>
+          <t>+15°11'53.423"</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.243576875176264</v>
+        <v>2.243285984177882</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2652607175721275</v>
+        <v>0.2652581603664041</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -808,25 +824,31 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>08h34m11.397s</t>
+          <t>08h34m7.397s</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>+15°11'53.951"</t>
+          <t>+15°11'53.423"</t>
         </is>
       </c>
       <c r="AD3" t="n">
-        <v>2.243576875176264</v>
+        <v>2.243285984177882</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.2652607175721275</v>
+        <v>0.2652581603664041</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.01351917594479035</v>
+        <v>0.7747255815804834</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.02226684916133753</v>
+        <v>1.275984739718576</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.01352151219800737</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.02227013491329201</v>
       </c>
     </row>
     <row r="4">
@@ -881,31 +903,31 @@
         <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.5269631652895</v>
+        <v>128.510337283164</v>
       </c>
       <c r="R4" t="n">
-        <v>15.6630525053658</v>
+        <v>15.66290247674525</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.7981025659526875, 'y': -0.6016977086512871, 'z': -0.03149859716760387, 'ar': 2.2368017488919487, 'dec': 0.27470552298649176, 'ar_deg': 128.15929981899, 'dec_deg': 15.73946707606, 'pmra': 3.63, 'pmdec': -9.608}, 'proper motion': {'ar': 2.2368021916188243, 'dec': 0.2747043511628485, 'pmra': 3.63, 'pmdec': -9.608}, 'precession': {'x': -0.5995936496627869, 'y': 0.7534546459164373, 'z': 0.26980280174786103, 'ar': 2.2429665252983177, 'dec': 0.27318823271656745, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.599600129480679, 'y': 0.7534376479869236, 'z': 0.26983586737623655, 'ar': 2.242982782998604, 'dec': 0.27322257195412547, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5996699298720446, 'y': 0.7533904254380113, 'z': 0.2698126054608817, 'ar': 2.243070040694777, 'dec': 0.2731984140107833, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5997527555157566, 'y': 0.7532646624843073, 'z': 0.2699795927540807, 'ar': 2.2432186848237743, 'dec': 0.27337183713137997, 'R': 46.380311947086845, 'alt': 53.04150793423162}}</t>
+          <t>{'simbad': {'x': 0.7981025659526875, 'y': -0.6016977086512871, 'z': -0.03149859716760387, 'ar': 2.2368017488919487, 'dec': 0.27470552298649176, 'ar_deg': 128.15929981899, 'dec_deg': 15.73946707606, 'pmra': 3.63, 'pmdec': -9.608}, 'proper motion': {'ar': 2.2368021916107943, 'dec': 0.2747043511841038, 'pmra': 3.63, 'pmdec': -9.608}, 'precession': {'x': -0.5995935608036604, 'y': 0.7534547071037975, 'z': 0.26980282835047864, 'ar': 2.242966413522914, 'dec': 0.2731882603437217, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.599600068036372, 'y': 0.7534377061557026, 'z': 0.2698358414918436, 'ar': 2.242982695451733, 'dec': 0.27322254507259813, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5996699830665045, 'y': 0.7533904002976276, 'z': 0.26981255743274574, 'ar': 2.243070100177153, 'dec': 0.27319836413281606, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5995345908305925, 'y': 0.7534392180293648, 'z': 0.269977071494772, 'ar': 2.2429285084396366, 'dec': 0.2733692186379792, 'R': 45.08625256538117, 'alt': 53.817929031062945}}</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>08h34m6.471s</t>
+          <t>08h34m2.481s</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>+15°39'46.989"</t>
+          <t>+15°39'46.449"</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.243218684823774</v>
+        <v>2.242928508439637</v>
       </c>
       <c r="W4" t="n">
-        <v>0.27337183713138</v>
+        <v>0.2733692186379792</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -925,25 +947,31 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>08h34m6.471s</t>
+          <t>08h34m2.481s</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>+15°39'46.989"</t>
+          <t>+15°39'46.449"</t>
         </is>
       </c>
       <c r="AD4" t="n">
-        <v>2.243218684823774</v>
+        <v>2.242928508439637</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.27337183713138</v>
+        <v>0.2733692186379792</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.01305539340372208</v>
+        <v>0.7481448676561939</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.02225761706435442</v>
+        <v>1.275447731786905</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.01305759122249782</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.02226076235677502</v>
       </c>
     </row>
     <row r="5">
@@ -998,31 +1026,31 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>126.758008370453</v>
+        <v>126.741305469607</v>
       </c>
       <c r="R5" t="n">
-        <v>15.063355454861</v>
+        <v>15.06279124747215</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': -0.6283349232350846, 'y': -0.558567884116155, 'z': 0.5414768167494913, 'ar': 2.205928467834203, 'dec': 0.2641690306043233, 'ar_deg': 126.39039111466, 'dec_deg': 15.135770531690003, 'pmra': 5.507, 'pmdec': -3.651}, 'proper motion': {'ar': 2.2059291394862433, 'dec': 0.2641685853162174, 'pmra': 5.507, 'pmdec': -3.651}, 'precession': {'x': -0.5777022045125766, 'y': 0.7738317952784292, 'z': 0.2597008192468255, 'ar': 2.2120841816035344, 'dec': 0.2627123793690876, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5777088034302333, 'y': 0.7738154295748138, 'z': 0.25973490214284695, 'ar': 2.212099795788227, 'dec': 0.26274767339583716, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5777788154602354, 'y': 0.7737709361040488, 'z': 0.2597117225810786, 'ar': 2.2121854546697204, 'dec': 0.26272367011528563, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.577873734500737, 'y': 0.7736412022236638, 'z': 0.2598869700390832, 'ar': 2.212344599334937, 'dec': 0.2629051490855726, 'R': 49.051217608576785, 'alt': 51.487258438805945}}</t>
+          <t>{'simbad': {'x': -0.6283349232350846, 'y': -0.558567884116155, 'z': 0.5414768167494913, 'ar': 2.205928467834203, 'dec': 0.2641690306043233, 'ar_deg': 126.39039111466, 'dec_deg': 15.135770531690003, 'pmra': 5.507, 'pmdec': -3.651}, 'proper motion': {'ar': 2.2059291394740606, 'dec': 0.26416858532429427, 'pmra': 5.507, 'pmdec': -3.651}, 'precession': {'x': -0.5777021140207759, 'y': 0.7738318542368647, 'z': 0.2597008448662851, 'ar': 2.212084069989959, 'dec': 0.2627124058988052, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5777087408571141, 'y': 0.7738154856102545, 'z': 0.2597348743758795, 'ar': 2.2120997091512957, 'dec': 0.26274764464203815, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5777788752843275, 'y': 0.7737709069931955, 'z': 0.25971167622212366, 'ar': 2.21218552234415, 'dec': 0.26272362210905437, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5776497084707367, 'y': 0.7738116822003896, 'z': 0.25987746111172366, 'ar': 2.212053078720541, 'dec': 0.26289530180897297, 'R': 44.15768357370186, 'alt': 54.38460801131411}}</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>08h27m1.922s</t>
+          <t>08h26m57.913s</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>+15°03'48.080"</t>
+          <t>+15°03'46.048"</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.212344599334937</v>
+        <v>2.212053078720541</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2629051490855726</v>
+        <v>0.262895301808973</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1042,25 +1070,31 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>08h27m1.922s</t>
+          <t>08h26m57.913s</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>+15°03'48.080"</t>
+          <t>+15°03'46.048"</t>
         </is>
       </c>
       <c r="AD5" t="n">
-        <v>2.212344599334937</v>
+        <v>2.212053078720541</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.2629051490855726</v>
+        <v>0.262895301808973</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.04877684355891576</v>
+        <v>-2.794608327477604</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0213610622545497</v>
+        <v>1.223244796128613</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.04877511661813612</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.02134964925033108</v>
       </c>
     </row>
     <row r="6">
@@ -1115,31 +1149,31 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>128.0684554677135</v>
+        <v>128.0517036308649</v>
       </c>
       <c r="R6" t="n">
-        <v>14.35613940340089</v>
+        <v>14.3558774045037</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.13088727806156186, 'y': -0.25845317091220205, 'z': 0.9571157082020247, 'ar': 2.228842653807015, 'dec': 0.251869974239463, 'ar_deg': 127.70327726188, 'dec_deg': 14.431086509989997, 'pmra': -8.832, 'pmdec': -3.483}, 'proper motion': {'ar': 2.2288415766269134, 'dec': 0.251869549441196, 'pmra': -8.832, 'pmdec': -3.483}, 'precession': {'x': -0.5971836897202325, 'y': 0.762880068011168, 'z': 0.24776126122419723, 'ar': 2.2349620716615077, 'dec': 0.2503687833837017, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.597190168575916, 'y': 0.762864111933293, 'z': 0.24779477250437992, 'ar': 2.2349774895242644, 'dec': 0.25040337328663365, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5972599019488757, 'y': 0.762817419142895, 'z': 0.24777044734227696, 'ar': 2.235063874818039, 'dec': 0.250378265143598, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5973480382939759, 'y': 0.762690589711412, 'z': 0.24794835250913955, 'ar': 2.2352162158553344, 'dec': 0.25056190046463994, 'R': 48.59450379645445, 'alt': 51.74847310939308}}</t>
+          <t>{'simbad': {'x': 0.13088727806156186, 'y': -0.25845317091220205, 'z': 0.9571157082020247, 'ar': 2.228842653807015, 'dec': 0.251869974239463, 'ar_deg': 127.70327726188, 'dec_deg': 14.431086509989997, 'pmra': -8.832, 'pmdec': -3.483}, 'proper motion': {'ar': 2.2288415766464515, 'dec': 0.2518695494489013, 'pmra': -8.832, 'pmdec': -3.483}, 'precession': {'x': -0.5971836008997556, 'y': 0.7628801289391453, 'z': 0.2477612877069265, 'ar': 2.2349619607058573, 'dec': 0.25036881071870604, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5971901071661854, 'y': 0.7628641686225586, 'z': 0.24779474597870793, 'ar': 2.2349774035432883, 'dec': 0.2504033459070627, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5972599561559029, 'y': 0.7628173906954927, 'z': 0.24777040425597327, 'ar': 2.235063936974386, 'dec': 0.25037822067057086, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5971257201658473, 'y': 0.7628660993807683, 'z': 0.24794392255505865, 'ar': 2.2349238411465695, 'dec': 0.2505573277212474, 'R': 46.35245094118394, 'alt': 53.058062063652315}}</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>08h32m16.429s</t>
+          <t>08h32m12.409s</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>+14°21'22.102"</t>
+          <t>+14°21'21.159"</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.235216215855335</v>
+        <v>2.23492384114657</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2505619004646399</v>
+        <v>0.2505573277212474</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1159,25 +1193,31 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>08h32m16.429s</t>
+          <t>08h32m12.409s</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>+14°21'22.102"</t>
+          <t>+14°21'21.159"</t>
         </is>
       </c>
       <c r="AD6" t="n">
-        <v>2.235216215855335</v>
+        <v>2.23492384114657</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.2505619004646399</v>
+        <v>0.2505573277212474</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.003593872625518024</v>
+        <v>-0.2057764402981661</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.02199810722789691</v>
+        <v>1.260355471698048</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.00359147640623654</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.02199735272665715</v>
       </c>
     </row>
     <row r="7">
@@ -1232,31 +1272,31 @@
         <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>127.2630567104509</v>
+        <v>127.2462466950578</v>
       </c>
       <c r="R7" t="n">
-        <v>13.90682454603503</v>
+        <v>13.90636787120563</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.051664728445107375, 'y': 0.14780731995062868, 'z': 0.987665809878881, 'ar': 2.214792042907722, 'dec': 0.24399604065353478, 'ar_deg': 126.89823655777, 'dec_deg': 13.97994334735, 'pmra': -2.19, 'pmdec': -9.384}, 'proper motion': {'ar': 2.2147917758080364, 'dec': 0.24399489614967673, 'pmra': -2.19, 'pmdec': -9.384}, 'precession': {'x': -0.5875570951073639, 'y': 0.7727251518043659, 'z': 0.24015099366422726, 'ar': 2.220901326447797, 'dec': 0.2425213936688923, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5875636226966615, 'y': 0.7727096209087013, 'z': 0.2401849933670006, 'ar': 2.2209163630918014, 'dec': 0.24255641850157938, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5876334337653523, 'y': 0.7726641396708663, 'z': 0.24016051879486994, 'ar': 2.2210019678313526, 'dec': 0.24253120596251154, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5877275891549274, 'y': 0.7725355683198567, 'z': 0.24034366358789655, 'ar': 2.221159355749632, 'dec': 0.2427198768254769, 'R': 50.07515012903763, 'alt': 50.908367015122735}}</t>
+          <t>{'simbad': {'x': 0.051664728445107375, 'y': 0.14780731995062868, 'z': 0.987665809878881, 'ar': 2.214792042907722, 'dec': 0.24399604065353478, 'ar_deg': 126.89823655777, 'dec_deg': 13.97994334735, 'pmra': -2.19, 'pmdec': -9.384}, 'proper motion': {'ar': 2.2147917758128814, 'dec': 0.24399489617043643, 'pmra': -2.19, 'pmdec': -9.384}, 'precession': {'x': -0.5875570056066219, 'y': 0.7727252117563057, 'z': 0.240151019732902, 'ar': 2.220901215674565, 'dec': 0.2425214205234511, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5875635608128373, 'y': 0.7727096764776827, 'z': 0.24018496597975106, 'ar': 2.220916277696934, 'dec': 0.24255639028845077, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.587633490950895, 'y': 0.7726641091205736, 'z': 0.24016047716011668, 'ar': 2.22100203377222, 'dec': 0.24253116307250477, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.587502068978526, 'y': 0.772709493449832, 'z': 0.24033592673267856, 'ar': 2.2208659656337115, 'dec': 0.24271190634609296, 'R': 46.17477366443055, 'alt': 53.16379960377884}}</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>08h29m3.134s</t>
+          <t>08h28m59.099s</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>+13°54'24.568"</t>
+          <t>+13°54'22.924"</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.221159355749632</v>
+        <v>2.220865965633712</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2427198768254769</v>
+        <v>0.2427119063460929</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1276,25 +1316,31 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>08h29m3.134s</t>
+          <t>08h28m59.099s</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>+13°54'24.568"</t>
+          <t>+13°54'22.924"</t>
         </is>
       </c>
       <c r="AD7" t="n">
-        <v>2.221159355749632</v>
+        <v>2.220865965633712</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.2427198768254769</v>
+        <v>0.2427119063460929</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.03180522537417874</v>
+        <v>-1.822178178859787</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.02153778179892596</v>
+        <v>1.233589419362898</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.03180300877909741</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.02153019698564767</v>
       </c>
     </row>
     <row r="8">
@@ -1349,31 +1395,31 @@
         <v>6</v>
       </c>
       <c r="Q8" t="n">
-        <v>127.3009150040474</v>
+        <v>127.2842888779571</v>
       </c>
       <c r="R8" t="n">
-        <v>15.81425113200297</v>
+        <v>15.81381998466015</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': -0.2929986901247675, 'y': -0.9391758113071937, 'z': -0.17916629995801367, 'ar': 2.2153830126288385, 'dec': 0.27729969600784077, 'ar_deg': 126.93209662861, 'dec_deg': 15.88810224151, 'pmra': 2.713, 'pmdec': -5.362}, 'proper motion': {'ar': 2.215383343515344, 'dec': 0.2772990420404829, 'pmra': 2.713, 'pmdec': -5.362}, 'precession': {'x': -0.5828974497100466, 'y': 0.765546461187889, 'z': 0.2723401896236095, 'ar': 2.2215621799887235, 'dec': 0.2758243186249977, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5829040277354096, 'y': 0.7655294696664485, 'z': 0.2723738708504233, 'ar': 2.221578317112531, 'dec': 0.27585932315382333, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5829740470067567, 'y': 0.7654842085223293, 'z': 0.27235121997065986, 'ar': 2.2216647106189815, 'dec': 0.27583578230525546, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5830641072628673, 'y': 0.7653556889598017, 'z': 0.2725195703039007, 'ar': 2.221820107622078, 'dec': 0.2760107509906922, 'R': 47.47226643223212, 'alt': 52.398282419489654}}</t>
+          <t>{'simbad': {'x': -0.2929986901247675, 'y': -0.9391758113071937, 'z': -0.17916629995801367, 'ar': 2.2153830126288385, 'dec': 0.27729969600784077, 'ar_deg': 126.93209662861, 'dec_deg': 15.88810224151, 'pmra': 2.713, 'pmdec': -5.362}, 'proper motion': {'ar': 2.215383343509342, 'dec': 0.2772990420523449, 'pmra': 2.713, 'pmdec': -5.362}, 'precession': {'x': -0.5828973595075426, 'y': 0.7655465206720511, 'z': 0.2723402154769866, 'ar': 2.221562067951651, 'dec': 0.27582434549399537, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5829039653632015, 'y': 0.7655295268071609, 'z': 0.2723738437336812, 'ar': 2.2215782295620645, 'dec': 0.2758592949715518, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.582974105147955, 'y': 0.7654841816983059, 'z': 0.2723511709110428, 'ar': 2.2216647755814636, 'dec': 0.2758357313182222, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5828432335449812, 'y': 0.7655264822425669, 'z': 0.272512330172693, 'ar': 2.2215299269799496, 'dec': 0.27600322604999883, 'R': 43.70138456394698, 'alt': 54.66601930833893}}</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>08h29m12.220s</t>
+          <t>08h29m8.229s</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>+15°48'51.304"</t>
+          <t>+15°48'49.752"</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.221820107622078</v>
+        <v>2.22152992697995</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2760107509906922</v>
+        <v>0.2760032260499988</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1393,25 +1439,31 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>08h29m12.220s</t>
+          <t>08h29m8.229s</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>+15°48'51.304"</t>
+          <t>+15°48'49.752"</t>
         </is>
       </c>
       <c r="AD8" t="n">
-        <v>2.221820107622078</v>
+        <v>2.22152992697995</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.2760107509906922</v>
+        <v>0.2760032260499988</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.02952738917838005</v>
+        <v>-1.691696063734156</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.02165410066840417</v>
+        <v>1.240300946331397</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.02952566625518886</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.02164733522908436</v>
       </c>
     </row>
     <row r="9">
@@ -1466,31 +1518,31 @@
         <v>7</v>
       </c>
       <c r="Q9" t="n">
-        <v>127.8522019194143</v>
+        <v>127.835381443136</v>
       </c>
       <c r="R9" t="n">
-        <v>13.73228215167924</v>
+        <v>13.73196508106677</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': -0.08147158750506253, 'y': 0.31424823792259843, 'z': 0.9458384774325619, 'ar': 2.2250884291924273, 'dec': 0.24096955312192858, 'ar_deg': 127.48817603612001, 'dec_deg': 13.80653838504, 'pmra': -10.531, 'pmdec': -2.323}, 'proper motion': {'ar': 2.2250871447966336, 'dec': 0.24096926980112063, 'pmra': -10.531, 'pmdec': -2.323}, 'precession': {'x': -0.5959195267642092, 'y': 0.7672152306124556, 'z': 0.23719339690935273, 'ar': 2.2311866761816583, 'dec': 0.23947577785189733, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5959260037896805, 'y': 0.7671997748620349, 'z': 0.2372271136672713, 'ar': 2.2312017012805936, 'dec': 0.23951048521580473, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5959956928911393, 'y': 0.7671533190391058, 'z': 0.23720227474139988, 'ar': 2.231287689609591, 'dec': 0.23948491648813444, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5960865079690482, 'y': 0.7670260722498855, 'z': 0.23738550820591087, 'ar': 2.231441879418394, 'dec': 0.23967353735965416, 'R': 49.68097845881897, 'alt': 51.130117067261814}}</t>
+          <t>{'simbad': {'x': -0.08147158750506253, 'y': 0.31424823792259843, 'z': 0.9458384774325619, 'ar': 2.2250884291924273, 'dec': 0.24096955312192858, 'ar_deg': 127.48817603612001, 'dec_deg': 13.80653838504, 'pmra': -10.531, 'pmdec': -2.323}, 'proper motion': {'ar': 2.225087144819931, 'dec': 0.24096926980625966, 'pmra': -10.531, 'pmdec': -2.323}, 'precession': {'x': -0.5959194379732361, 'y': 0.7672152914097637, 'z': 0.2371934233335606, 'ar': 2.231186565608652, 'dec': 0.23947580505233929, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5959259424017096, 'y': 0.7671998308390604, 'z': 0.2372270868453919, 'ar': 2.2312016160278483, 'dec': 0.23951045760577555, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5959957476425444, 'y': 0.7671532890889066, 'z': 0.23720223403685897, 'ar': 2.2312877530308968, 'dec': 0.23948487458776918, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.595862110167658, 'y': 0.7672020714124657, 'z': 0.2373801324605056, 'ar': 2.2311483067255837, 'dec': 0.23966800343350517, 'R': 46.98427017682991, 'alt': 52.684398891097445}}</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>08h31m24.528s</t>
+          <t>08h31m20.492s</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>+13°43'56.216"</t>
+          <t>+13°43'55.074"</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.231441879418394</v>
+        <v>2.231148306725584</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2396735373596542</v>
+        <v>0.2396680034335052</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -1510,25 +1562,31 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>08h31m24.528s</t>
+          <t>08h31m20.492s</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>+13°43'56.216"</t>
+          <t>+13°43'55.074"</t>
         </is>
       </c>
       <c r="AD9" t="n">
-        <v>2.231441879418394</v>
+        <v>2.231148306725584</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.2396735373596542</v>
+        <v>0.2396680034335052</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.01142799858016286</v>
+        <v>-0.6546335604595441</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.02183736675674536</v>
+        <v>1.251036253284255</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.01142551102407241</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.02183470168162397</v>
       </c>
     </row>
     <row r="10">
@@ -1583,31 +1641,31 @@
         <v>8</v>
       </c>
       <c r="Q10" t="n">
-        <v>127.8328844704265</v>
+        <v>127.8162352413011</v>
       </c>
       <c r="R10" t="n">
-        <v>15.46100653968338</v>
+        <v>15.46069556692055</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.22526997819938804, 'y': -0.9591287344827608, 'z': 0.17124692000601027, 'ar': 2.224687258526013, 'dec': 0.27115205088732064, 'ar_deg': 127.46519065007001, 'dec_deg': 15.535868122160002, 'pmra': 0.308, 'pmdec': -6.2}, 'proper motion': {'ar': 2.2246872960907176, 'dec': 0.27115129471469496, 'pmra': 0.308, 'pmdec': -6.2}, 'precession': {'x': -0.5910003730000949, 'y': 0.7614120887986378, 'z': 0.2664023088207832, 'ar': 2.2308493640008464, 'dec': 0.26965851601896845, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5910069010843024, 'y': 0.7613953127994084, 'z': 0.2664357718434604, 'ar': 2.230865386443529, 'dec': 0.26969323383733834, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5910768063339686, 'y': 0.7613491616656449, 'z': 0.2664125804932186, 'ar': 2.230952038321507, 'dec': 0.269669172822915, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5911642309956628, 'y': 0.7612217953612868, 'z': 0.2665825017855541, 'ar': 2.23110472633047, 'dec': 0.26984546978985036, 'R': 47.36842995546725, 'alt': 52.45898159768455}}</t>
+          <t>{'simbad': {'x': 0.22526997819938804, 'y': -0.9591287344827608, 'z': 0.17124692000601027, 'ar': 2.224687258526013, 'dec': 0.27115205088732064, 'ar_deg': 127.46519065007001, 'dec_deg': 15.535868122160002, 'pmra': 0.308, 'pmdec': -6.2}, 'proper motion': {'ar': 2.2246872960900363, 'dec': 0.2711512947284108, 'pmra': 0.308, 'pmdec': -6.2}, 'precession': {'x': -0.5910002834865333, 'y': 0.7614121491062781, 'z': 0.26640233503518035, 'ar': 2.2308492522729497, 'dec': 0.26965854321622196, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5910068391897553, 'y': 0.7613953701592082, 'z': 0.266435745220226, 'ar': 2.2308652992258646, 'dec': 0.269693206215654, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5910768621328456, 'y': 0.7613491349694927, 'z': 0.2664125329867088, 'ar': 2.2309521010345077, 'dec': 0.26966912353509875, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5909438943836361, 'y': 0.7613946890021516, 'z': 0.2665772706927929, 'ar': 2.230814142464313, 'dec': 0.26984004229125497, 'R': 44.66673985774368, 'alt': 54.07295283602386}}</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>08h31m19.892s</t>
+          <t>08h31m15.896s</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>+15°27'39.624"</t>
+          <t>+15°27'38.504"</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.23110472633047</v>
+        <v>2.230814142464313</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2698454697898504</v>
+        <v>0.269840042291255</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -1627,25 +1685,31 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>08h31m19.892s</t>
+          <t>08h31m15.896s</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>+15°27'39.624"</t>
+          <t>+15°27'38.504"</t>
         </is>
       </c>
       <c r="AD10" t="n">
-        <v>2.23110472633047</v>
+        <v>2.230814142464313</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.2698454697898504</v>
+        <v>0.269840042291255</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.01120804943022691</v>
+        <v>-0.6420589771957594</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.02191798577967771</v>
+        <v>1.255663500915148</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-0.01120604314405319</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.02191546238808816</v>
       </c>
     </row>
     <row r="11">
@@ -1700,31 +1764,31 @@
         <v>9</v>
       </c>
       <c r="Q11" t="n">
-        <v>127.0952389084419</v>
+        <v>127.0785127662748</v>
       </c>
       <c r="R11" t="n">
-        <v>14.75061461111468</v>
+        <v>14.75012619440631</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': -0.3070866398650757, 'y': -0.5543961671173046, 'z': 0.7735261375687438, 'ar': 2.211832388224234, 'dec': 0.2587202265028149, 'ar_deg': 126.72866083559, 'dec_deg': 14.82357705328, 'pmra': -17.234, 'pmdec': 5.381}, 'proper motion': {'ar': 2.211830286308261, 'dec': 0.258720882787476, 'pmra': -17.234, 'pmdec': 5.381}, 'precession': {'x': -0.5830941711128589, 'y': 0.7715368346709532, 'z': 0.25442503878379225, 'ar': 2.217971586809068, 'dec': 0.257253131102602, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5831007359197704, 'y': 0.771520673911723, 'z': 0.2544589976727549, 'ar': 2.2179870779519923, 'dec': 0.2572882456815053, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.583170673378782, 'y': 0.7714755967780942, 'z': 0.2544353931488723, 'ar': 2.2180728754788843, 'dec': 0.2572638378133714, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5832640930467129, 'y': 0.7713465909763173, 'z': 0.2546123216806459, 'ar': 2.2182303825611145, 'dec': 0.2574467916567341, 'R': 49.10377809265611, 'alt': 51.45731622740953}}</t>
+          <t>{'simbad': {'x': -0.3070866398650757, 'y': -0.5543961671173046, 'z': 0.7735261375687438, 'ar': 2.211832388224234, 'dec': 0.2587202265028149, 'ar_deg': 126.72866083559, 'dec_deg': 14.82357705328, 'pmra': -17.234, 'pmdec': 5.381}, 'proper motion': {'ar': 2.2118302863463866, 'dec': 0.258720882775572, 'pmra': -17.234, 'pmdec': 5.381}, 'precession': {'x': -0.5830940811310351, 'y': 0.7715368941545147, 'z': 0.2544250646228848, 'ar': 2.217971475494641, 'dec': 0.257253157820928, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5831006737123186, 'y': 0.7715207299922262, 'z': 0.2544589701867529, 'ar': 2.2179869916703954, 'dec': 0.25728821725996764, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5831707317124099, 'y': 0.7714755675378349, 'z': 0.2544353481067202, 'ar': 2.2180729418292646, 'dec': 0.2572637912384277, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5830402004322748, 'y': 0.7715185597760074, 'z': 0.2546040781312182, 'ar': 2.217938456309142, 'dec': 0.2574382671770513, 'R': 44.88644887215732, 'alt': 53.93918699893067}}</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>08h28m22.857s</t>
+          <t>08h28m18.843s</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>+14°45'2.213"</t>
+          <t>+14°45'0.454"</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.218230382561114</v>
+        <v>2.217938456309142</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2574467916567341</v>
+        <v>0.2574382671770513</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -1744,25 +1808,31 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>08h28m22.857s</t>
+          <t>08h28m18.843s</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>+14°45'2.213"</t>
+          <t>+14°45'0.454"</t>
         </is>
       </c>
       <c r="AD11" t="n">
-        <v>2.218230382561114</v>
+        <v>2.217938456309142</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.2574467916567341</v>
+        <v>0.2574382671770513</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.03721700114704785</v>
+        <v>-2.132266475707695</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.02151720130437523</v>
+        <v>1.232344132589335</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.03721507053099497</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.02150846263131744</v>
       </c>
     </row>
     <row r="12">
@@ -1817,31 +1887,31 @@
         <v>10</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.4326866899605</v>
+        <v>128.4159535001724</v>
       </c>
       <c r="R12" t="n">
-        <v>14.51148101779884</v>
+        <v>14.51130561322545</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.32208733922684885, 'y': -0.29271108068159957, 'z': 0.9003221474316728, 'ar': 2.2352020924347205, 'dec': 0.254599104073787, 'ar_deg': 128.06764625532, 'dec_deg': 14.58745413124, 'pmra': -39.934, 'pmdec': -32.842}, 'proper motion': {'ar': 2.235197221951231, 'dec': 0.2545950985542105, 'pmra': -39.934, 'pmdec': -32.842}, 'precession': {'x': -0.6016025994935855, 'y': 0.7585378234213754, 'z': 0.2503890627038704, 'ar': 2.241320827379636, 'dec': 0.2530820982323219, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.6016090545031572, 'y': 0.7585217123797285, 'z': 0.25042235800411594, 'ar': 2.241336392151271, 'dec': 0.2531164891945119, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.6016787361003992, 'y': 0.7584744656227946, 'z': 0.250398050157828, 'ar': 2.241423108825088, 'dec': 0.2530913814099285, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.6017643101794667, 'y': 0.7583484598382941, 'z': 0.25057399796291085, 'ar': 2.2415732499221086, 'dec': 0.25327312310124767, 'R': 48.001685437948815, 'alt': 52.09031909001853}}</t>
+          <t>{'simbad': {'x': 0.32208733922684885, 'y': -0.29271108068159957, 'z': 0.9003221474316728, 'ar': 2.2352020924347205, 'dec': 0.254599104073787, 'ar_deg': 128.06764625532, 'dec_deg': 14.58745413124, 'pmra': -39.934, 'pmdec': -32.842}, 'proper motion': {'ar': 2.2351972220395746, 'dec': 0.2545950986268651, 'pmra': -39.934, 'pmdec': -32.842}, 'precession': {'x': -0.6016025110418073, 'y': 0.7585378847460238, 'z': 0.2503890894452476, 'ar': 2.2413207164370372, 'dec': 0.2530821258535657, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.6016089933612421, 'y': 0.7585217694809807, 'z': 0.25042233193210867, 'ar': 2.2413363060197464, 'dec': 0.25311646226442286, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.6016787889905957, 'y': 0.7584744380224178, 'z': 0.25039800667215334, 'ar': 2.2414231693418634, 'dec': 0.2530913364933453, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.6015432860654752, 'y': 0.7585247733523339, 'z': 0.25057103424047217, 'ar': 2.2412812006659455, 'dec': 0.25327006171391897, 'R': 46.50492804077336, 'alt': 52.967551953938816}}</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>08h33m43.845s</t>
+          <t>08h33m39.829s</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>+14°30'41.332"</t>
+          <t>+14°30'40.700"</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.241573249922109</v>
+        <v>2.241281200665945</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2532731231012477</v>
+        <v>0.253270061713919</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -1861,25 +1931,31 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>08h33m43.845s</t>
+          <t>08h33m39.829s</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>+14°30'41.332"</t>
+          <t>+14°30'40.700"</t>
         </is>
       </c>
       <c r="AD12" t="n">
-        <v>2.241573249922109</v>
+        <v>2.241281200665945</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.2532731231012477</v>
+        <v>0.253270061713919</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.009158641654681166</v>
+        <v>0.5248940784103979</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.02219022266428888</v>
+        <v>1.271537508026732</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.009161129892482727</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.0221925160776703</v>
       </c>
     </row>
     <row r="13">
@@ -1934,31 +2010,31 @@
         <v>11</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.9018071884701</v>
+        <v>126.8849426878792</v>
       </c>
       <c r="R13" t="n">
-        <v>13.47949801912443</v>
+        <v>13.47895010115336</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.3546859513020313, 'y': 0.423754090695339, 'z': 0.8334448671435559, 'ar': 2.208497728660236, 'dec': 0.2365214910385459, 'ar_deg': 126.53759891646, 'dec_deg': 13.55168320065, 'pmra': 3.616, 'pmdec': -8.759}, 'proper motion': {'ar': 2.2084981696796255, 'dec': 0.23652042276176705, 'pmra': 3.616, 'pmdec': -8.759}, 'precession': {'x': -0.5837314251376697, 'y': 0.777827061220102, 'z': 0.23290059282974096, 'ar': 2.2145945083078042, 'dec': 0.23505923586256716, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.583737967310784, 'y': 0.7778118956100158, 'z': 0.23293484189237973, 'ar': 2.2146092493411174, 'dec': 0.2350944535364122, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5838077726265327, 'y': 0.7777669190869214, 'z': 0.23291007748675174, 'ar': 2.214694420003423, 'dec': 0.2350689887291512, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5839052123340862, 'y': 0.7776376412538345, 'z': 0.23309740863908707, 'ar': 2.2148543621698122, 'dec': 0.23526162194977487, 'R': 51.068856610247636, 'alt': 50.35539533579625}}</t>
+          <t>{'simbad': {'x': 0.3546859513020313, 'y': 0.423754090695339, 'z': 0.8334448671435559, 'ar': 2.208497728660236, 'dec': 0.2365214910385459, 'ar_deg': 126.53759891646, 'dec_deg': 13.55168320065, 'pmra': 3.616, 'pmdec': -8.759}, 'proper motion': {'ar': 2.208498169671626, 'dec': 0.2365204227811441, 'pmra': 3.616, 'pmdec': -8.759}, 'precession': {'x': -0.5837313354280608, 'y': 0.777827120789514, 'z': 0.23290061872753215, 'ar': 2.2145943977603113, 'dec': 0.2350592624926718, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5837379052797901, 'y': 0.7778119504906532, 'z': 0.23293481408644817, 'ar': 2.214609164450724, 'dec': 0.2350944249439697, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5838078310653404, 'y': 0.7777668872300806, 'z': 0.23291003738614147, 'ar': 2.2146944877272885, 'dec': 0.2350689474945176, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.583677634258414, 'y': 0.7778112577421894, 'z': 0.2330881090832686, 'ar': 2.2145600211077956, 'dec': 0.23525205897714893, 'R': 46.41163502883228, 'alt': 53.02290523590378}}</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>08h27m36.434s</t>
+          <t>08h27m32.386s</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>+13°28'46.193"</t>
+          <t>+13°28'44.220"</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.214854362169812</v>
+        <v>2.214560021107796</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2352616219497749</v>
+        <v>0.2352520589771489</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -1978,25 +2054,31 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>08h27m36.434s</t>
+          <t>08h27m32.386s</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>+13°28'46.193"</t>
+          <t>+13°28'44.220"</t>
         </is>
       </c>
       <c r="AD13" t="n">
-        <v>2.214854362169812</v>
+        <v>2.214560021107796</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.2352616219497749</v>
+        <v>0.2352520589771489</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.0445466860870285</v>
+        <v>-2.552211455271504</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.02129368929252046</v>
+        <v>1.219421662488918</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.04454449310160373</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.02128292298057464</v>
       </c>
     </row>
     <row r="14">
@@ -2051,31 +2133,31 @@
         <v>12</v>
       </c>
       <c r="Q14" t="n">
-        <v>127.0775826775475</v>
+        <v>127.0609441244178</v>
       </c>
       <c r="R14" t="n">
-        <v>15.71212691972243</v>
+        <v>15.71164347395049</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': -0.500184317011205, 'y': -0.8624424491532139, 'z': -0.07751561723059723, 'ar': 2.211488311731034, 'dec': 0.27550993908487953, 'ar_deg': 126.7089467047, 'dec_deg': 15.78555672347, 'pmra': -14.273, 'pmdec': -18.293}, 'proper motion': {'ar': 2.211486570948472, 'dec': 0.27550770800974367, 'pmra': -14.273, 'pmdec': -18.293}, 'precession': {'x': -0.5802000745438921, 'y': 0.7681997259687977, 'z': 0.2706234552301891, 'ar': 2.2176632605821887, 'dec': 0.2740405936007001, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5802066667816844, 'y': 0.7681828342742973, 'z': 0.2706572684196654, 'ar': 2.2176793001363477, 'dec': 0.2740757175993434, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5802767049650702, 'y': 0.7681379155750448, 'z': 0.27063460298141095, 'ar': 2.2177654767666155, 'dec': 0.2740521734696513, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5803683464036673, 'y': 0.7680088988879149, 'z': 0.2708041981241146, 'ar': 2.2179222231985145, 'dec': 0.27422834724039125, 'R': 47.84542005510844, 'alt': 52.18095540702316}}</t>
+          <t>{'simbad': {'x': -0.500184317011205, 'y': -0.8624424491532139, 'z': -0.07751561723059723, 'ar': 2.211488311731034, 'dec': 0.27550993908487953, 'ar_deg': 126.7089467047, 'dec_deg': 15.78555672347, 'pmra': -14.273, 'pmdec': -18.293}, 'proper motion': {'ar': 2.211486570980047, 'dec': 0.2755077080502123, 'pmra': -14.273, 'pmdec': -18.293}, 'precession': {'x': -0.5801999841709897, 'y': 0.7681997851497022, 'z': 0.27062348099145944, 'ar': 2.2176631486212983, 'dec': 0.2740406203605052, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5802066042992048, 'y': 0.7681828910957743, 'z': 0.2706572410916138, 'ar': 2.2176792127701375, 'dec': 0.27407568921174674, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5802767639487275, 'y': 0.7681378881804202, 'z': 0.27063455426629623, 'ar': 2.2177655428077148, 'dec': 0.2740521228661217, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5801466710933335, 'y': 0.7681792274065037, 'z': 0.27079607567405717, 'ar': 2.2176318256636343, 'dec': 0.274219909519916, 'R': 43.62012902189271, 'alt': 54.716336033647664}}</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>08h28m18.620s</t>
+          <t>08h28m14.627s</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>+15°42'43.657"</t>
+          <t>+15°42'41.917"</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.217922223198515</v>
+        <v>2.217631825663634</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2742283472403912</v>
+        <v>0.274219909519916</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -2095,25 +2177,31 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>08h28m18.620s</t>
+          <t>08h28m14.627s</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>+15°42'43.657"</t>
+          <t>+15°42'41.917"</t>
         </is>
       </c>
       <c r="AD14" t="n">
-        <v>2.217922223198515</v>
+        <v>2.217631825663634</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.2742283472403912</v>
+        <v>0.274219909519916</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.03734485697464374</v>
+        <v>-2.139606923746697</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.02154177374049732</v>
+        <v>1.233759947198108</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>-0.03734318551784711</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.02153317325783836</v>
       </c>
     </row>
     <row r="15">
@@ -2168,31 +2256,31 @@
         <v>13</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.0173406374081</v>
+        <v>128.0006672200025</v>
       </c>
       <c r="R15" t="n">
-        <v>15.17018486575602</v>
+        <v>15.16991506342986</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.3615591685450758, 'y': -0.8186225592489598, 'z': 0.44624216870403116, 'ar': 2.227919871208553, 'dec': 0.2660824511361963, 'ar_deg': 127.65040571358001, 'dec_deg': 15.245401452600003, 'pmra': -3.473, 'pmdec': -15.946}, 'proper motion': {'ar': 2.2279194476299193, 'dec': 0.2660805063089882, 'pmra': -3.473, 'pmdec': -15.946}, 'precession': {'x': -0.5942743652158834, 'y': 0.7605609331890376, 'z': 0.2615053455550748, 'ar': 2.234069644047751, 'dec': 0.26458149123610253, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5942808711604229, 'y': 0.7605443603020708, 'z': 0.2615387584766789, 'ar': 2.234085527377938, 'dec': 0.26461610894031834, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5943507130514938, 'y': 0.7604978755462627, 'z': 0.261515221707651, 'ar': 2.2341721982052722, 'dec': 0.2645917234631211, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5944375510332084, 'y': 0.7603709126822422, 'z': 0.2616869753511149, 'ar': 2.2343240937699074, 'dec': 0.26476967404365653, 'R': 47.557220936153534, 'alt': 52.34869364267377}}</t>
+          <t>{'simbad': {'x': 0.3615591685450758, 'y': -0.8186225592489598, 'z': 0.44624216870403116, 'ar': 2.227919871208553, 'dec': 0.2660824511361963, 'ar_deg': 127.65040571358001, 'dec_deg': 15.245401452600003, 'pmra': -3.473, 'pmdec': -15.946}, 'proper motion': {'ar': 2.227919447637602, 'dec': 0.26608050634426467, 'pmra': -3.473, 'pmdec': -15.946}, 'precession': {'x': -0.5942742760092331, 'y': 0.7605609938214124, 'z': 0.26150537193543005, 'ar': 2.234069532543143, 'dec': 0.2645815185675363, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5942808094791227, 'y': 0.760544417595531, 'z': 0.26153873202474903, 'ar': 2.234085440473697, 'dec': 0.2646160815344726, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.594350767933546, 'y': 0.7604978485699287, 'z': 0.261515175424513, 'ar': 2.23417226021738, 'dec': 0.2645916755112263, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5942170120095441, 'y': 0.7605448364197112, 'z': 0.26168243050263, 'ar': 2.2340330877386205, 'dec': 0.26476496510473546, 'R': 45.22459552954219, 'alt': 53.734187383954314}}</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>08h32m4.162s</t>
+          <t>08h32m0.160s</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>+15°10'12.666"</t>
+          <t>+15°10'11.694"</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.234324093769907</v>
+        <v>2.234033087738621</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2647696740436565</v>
+        <v>0.2647649651047355</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2212,25 +2300,31 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>08h32m4.162s</t>
+          <t>08h32m0.160s</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>+15°10'12.666"</t>
+          <t>+15°10'11.694"</t>
         </is>
       </c>
       <c r="AD15" t="n">
-        <v>2.234324093769907</v>
+        <v>2.234033087738621</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.2647696740436565</v>
+        <v>0.2647649651047355</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.004944736305448227</v>
+        <v>-0.2831892127473168</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.02200413575484444</v>
+        <v>1.260683245876594</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.004942584168571375</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.02200307346527579</v>
       </c>
     </row>
     <row r="16">
@@ -2285,31 +2379,31 @@
         <v>14</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.3897077855381</v>
+        <v>127.3729493844016</v>
       </c>
       <c r="R16" t="n">
-        <v>14.37707342659689</v>
+        <v>14.37665105838316</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': -0.0644320964011017, 'y': -0.3015278450354219, 'z': 0.9512778057022322, 'ar': 2.2169867353555537, 'dec': 0.2522107113441139, 'ar_deg': 127.02398317235999, 'dec_deg': 14.45060930801, 'pmra': -0.346, 'pmdec': -6.054}, 'proper motion': {'ar': 2.2169866931562425, 'dec': 0.25220997297813386, 'pmra': -0.346, 'pmdec': -6.054}, 'precession': {'x': -0.5880474400208916, 'y': 0.76983114651454, 'z': 0.24811330907668924, 'ar': 2.223112446708137, 'dec': 0.2507321778360472, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5880539717608303, 'y': 0.7698152420890504, 'z': 0.24814717274973985, 'ar': 2.223127771103503, 'dec': 0.2507671347270854, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5881238234546741, 'y': 0.7697696363799698, 'z': 0.2481231049146866, 'ar': 2.2232136502921542, 'dec': 0.25074228988004854, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5882161612988415, 'y': 0.7696412919099078, 'z': 0.24830229433918405, 'ar': 2.2233698340110934, 'dec': 0.25092726809509897, 'R': 49.291432920863514, 'alt': 51.35061523645093}}</t>
+          <t>{'simbad': {'x': -0.0644320964011017, 'y': -0.3015278450354219, 'z': 0.9512778057022322, 'ar': 2.2169867353555537, 'dec': 0.2522107113441139, 'ar_deg': 127.02398317235999, 'dec_deg': 14.45060930801, 'pmra': -0.346, 'pmdec': -6.054}, 'proper motion': {'ar': 2.2169866931570077, 'dec': 0.25220997299152675, 'pmra': -0.346, 'pmdec': -6.054}, 'precession': {'x': -0.5880473504603181, 'y': 0.769831206520245, 'z': 0.24811333515993045, 'ar': 2.2231123356379094, 'dec': 0.2507322047612109, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5880539098347352, 'y': 0.7698152981645372, 'z': 0.2481471455405563, 'ar': 2.223127685164576, 'dec': 0.25076710663938445, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5881238803695102, 'y': 0.7697696068983853, 'z': 0.24812306147276067, 'ar': 2.2232137154539813, 'dec': 0.2507422450357756, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5879921353625559, 'y': 0.7698147605173536, 'z': 0.24829515347946435, 'ar': 2.2230773447338925, 'dec': 0.2509198963791137, 'R': 45.66390474035889, 'alt': 53.46943799355122}}</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>08h29m33.530s</t>
+          <t>08h29m29.508s</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>+14°22'37.464"</t>
+          <t>+14°22'35.944"</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>2.223369834011093</v>
+        <v>2.223077344733893</v>
       </c>
       <c r="W16" t="n">
-        <v>0.250927268095099</v>
+        <v>0.2509198963791137</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -2329,25 +2423,31 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>08h29m33.530s</t>
+          <t>08h29m29.508s</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>+14°22'37.464"</t>
+          <t>+14°22'35.944"</t>
         </is>
       </c>
       <c r="AD16" t="n">
-        <v>2.223369834011093</v>
+        <v>2.223077344733893</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.250927268095099</v>
+        <v>0.2509198963791137</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.02717325914050406</v>
+        <v>-1.556790571348529</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.02164421360938393</v>
+        <v>1.239755344194261</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>-0.02717112123403553</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.02163781267538543</v>
       </c>
     </row>
     <row r="17">
@@ -2402,31 +2502,31 @@
         <v>16</v>
       </c>
       <c r="Q17" t="n">
-        <v>128.4373048849163</v>
+        <v>128.4206426046781</v>
       </c>
       <c r="R17" t="n">
-        <v>15.25523747601263</v>
+        <v>15.25506555201816</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.6899600468125024, 'y': -0.6234304338122445, 'z': 0.36781738403610853, 'ar': 2.2352521132441825, 'dec': 0.2675817071777409, 'ar_deg': 128.07051223659, 'dec_deg': 15.331302496189998, 'pmra': -8.425, 'pmdec': -6.843}, 'proper motion': {'ar': 2.2352510857031542, 'dec': 0.267580872582696, 'pmra': -8.425, 'pmdec': -6.843}, 'precession': {'x': -0.599592359620052, 'y': 0.7558781478985335, 'z': 0.26293958966793357, 'ar': 2.241401361008222, 'dec': 0.26606774325927124, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5995988353315207, 'y': 0.7558614688007068, 'z': 0.2629727678896091, 'ar': 2.241417362988823, 'dec': 0.26610213168610825, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5996686078328648, 'y': 0.755814330453698, 'z': 0.2629491560370978, 'ar': 2.2415043827128107, 'dec': 0.2660776585371964, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5997527177814104, 'y': 0.7556883324782674, 'z': 0.2631194057268049, 'ar': 2.241653852629586, 'dec': 0.26625412213004995, 'R': 47.006174648529914, 'alt': 52.671509712532675}}</t>
+          <t>{'simbad': {'x': 0.6899600468125024, 'y': -0.6234304338122445, 'z': 0.36781738403610853, 'ar': 2.2352521132441825, 'dec': 0.2675817071777409, 'ar_deg': 128.07051223659, 'dec_deg': 15.331302496189998, 'pmra': -8.425, 'pmdec': -6.843}, 'proper motion': {'ar': 2.2352510857217927, 'dec': 0.2675808725978344, 'pmra': -8.425, 'pmdec': -6.843}, 'precession': {'x': -0.5995922708391045, 'y': 0.7558782090711698, 'z': 0.26293961626458473, 'ar': 2.2414012495135665, 'dec': 0.26606777082592986, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5995987739480194, 'y': 0.755861526551245, 'z': 0.2629727418567432, 'ar': 2.2414172759447397, 'dec': 0.26610210470354406, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5996686611223571, 'y': 0.7558143043414697, 'z': 0.2629491095640752, 'ar': 2.241504442803244, 'dec': 0.2660776103691248, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.599533420084753, 'y': 0.7558633341657343, 'z': 0.2631165108185695, 'ar': 2.24136304097854, 'dec': 0.2662511214902832, 'R': 45.52673239438401, 'alt': 53.551913502080005}}</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>08h33m44.953s</t>
+          <t>08h33m40.954s</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>+15°15'18.855"</t>
+          <t>+15°15'18.236"</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>2.241653852629585</v>
+        <v>2.24136304097854</v>
       </c>
       <c r="W17" t="n">
-        <v>0.26625412213005</v>
+        <v>0.2662511214902832</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2446,25 +2546,31 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>08h33m44.953s</t>
+          <t>08h33m40.954s</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>+15°15'18.855"</t>
+          <t>+15°15'18.236"</t>
         </is>
       </c>
       <c r="AD17" t="n">
-        <v>2.241653852629585</v>
+        <v>2.24136304097854</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.26625412213005</v>
+        <v>0.2662511214902832</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.009712555826367542</v>
+        <v>0.5566191053047334</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.02221314526332613</v>
+        <v>1.272856199067112</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.009714836067072631</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.02221553157814148</v>
       </c>
     </row>
     <row r="18">
@@ -2519,31 +2625,31 @@
         <v>17</v>
       </c>
       <c r="Q18" t="n">
-        <v>127.3470929008605</v>
+        <v>127.3303973717398</v>
       </c>
       <c r="R18" t="n">
-        <v>15.02533071200368</v>
+        <v>15.02490376845211</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': -0.2064867135060671, 'y': -0.7938233429993006, 'z': 0.572020748972341, 'ar': 2.216219522229848, 'dec': 0.26352719243487127, 'ar_deg': 126.98002509827002, 'dec_deg': 15.09899591345, 'pmra': -5.539, 'pmdec': -4.355}, 'proper motion': {'ar': 2.2162188466749813, 'dec': 0.26352666128458335, 'pmra': -5.539, 'pmdec': -4.355}, 'precession': {'x': -0.5857339521235895, 'y': 0.7679862690548723, 'z': 0.2590614364834293, 'ar': 2.222368458386038, 'dec': 0.26205033826197693, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5857405054601361, 'y': 0.7679698732679383, 'z': 0.25909522190911, 'ar': 2.2223841479349282, 'dec': 0.26208531802572876, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5858104387002933, 'y': 0.7679244341555095, 'z': 0.259071791858377, 'ar': 2.222470249595885, 'dec': 0.2620610596716807, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5859017182545949, 'y': 0.7677959735724801, 'z': 0.2592460597814364, 'ar': 2.2226260639631126, 'dec': 0.26224149212548814, 'R': 48.462743732449034, 'alt': 51.8241792408534}}</t>
+          <t>{'simbad': {'x': -0.2064867135060671, 'y': -0.7938233429993006, 'z': 0.572020748972341, 'ar': 2.216219522229848, 'dec': 0.26352719243487127, 'ar_deg': 126.98002509827002, 'dec_deg': 15.09899591345, 'pmra': -5.539, 'pmdec': -4.355}, 'proper motion': {'ar': 2.216218846687235, 'dec': 0.2635266612942177, 'pmra': -5.539, 'pmdec': -4.355}, 'precession': {'x': -0.585733862275239, 'y': 0.7679863288184251, 'z': 0.25906146246041556, 'ar': 2.2223683468957685, 'dec': 0.2620503651571415, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5857404433376319, 'y': 0.7679699298178996, 'z': 0.25909519473375997, 'ar': 2.2223840612863675, 'dec': 0.26208528988957946, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.585810496164482, 'y': 0.7679244058365524, 'z': 0.2590717458622251, 'ar': 2.222470314682045, 'dec': 0.26206101204961985, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5856791352562534, 'y': 0.7679682040652032, 'z': 0.2592388629630077, 'ar': 2.2223346720095933, 'dec': 0.262234040554793, 'R': 44.765687823898496, 'alt': 54.01265468075874}}</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>08h29m23.302s</t>
+          <t>08h29m19.295s</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>+15°01'31.191"</t>
+          <t>+15°01'29.654"</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>2.222626063963113</v>
+        <v>2.222334672009593</v>
       </c>
       <c r="W18" t="n">
-        <v>0.2622414921254881</v>
+        <v>0.262234040554793</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2563,25 +2669,31 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>08h29m23.302s</t>
+          <t>08h29m19.295s</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>+15°01'31.191"</t>
+          <t>+15°01'29.654"</t>
         </is>
       </c>
       <c r="AD18" t="n">
-        <v>2.222626063963113</v>
+        <v>2.222334672009593</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.2622414921254881</v>
+        <v>0.262234040554793</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.02832832476476232</v>
+        <v>-1.622981779971155</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.02165907081041141</v>
+        <v>1.240595799097479</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-0.02832637576037482</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.0216524813806611</v>
       </c>
     </row>
     <row r="19">
@@ -2636,31 +2748,31 @@
         <v>18</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.4647832912761</v>
+        <v>128.447998821718</v>
       </c>
       <c r="R19" t="n">
-        <v>14.01307739005061</v>
+        <v>14.01290793642974</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': -0.0368630190597948, 'y': 0.03134599385533639, 'z': 0.998828587143469, 'ar': 2.2357774016238112, 'dec': 0.24589524027390391, 'ar_deg': 128.10060904377, 'dec_deg': 14.08875947005, 'pmra': -14.903, 'pmdec': -7.281}, 'proper motion': {'ar': 2.235775584004353, 'dec': 0.245894352258922, 'pmra': -14.903, 'pmdec': -7.281}, 'precession': {'x': -0.6033596319738468, 'y': 0.7598782211084673, 'z': 0.24195504456285996, 'ar': 2.2418811856078467, 'dec': 0.244380259197982, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.6033660697445092, 'y': 0.7598624887804772, 'z': 0.2419883964685148, 'ar': 2.2418964643567345, 'dec': 0.2444146325666489, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.6034356766842293, 'y': 0.7598151054283848, 'z': 0.24196361227981938, 'ar': 2.241983013208036, 'dec': 0.24438908928879444, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.6035220752273973, 'y': 0.7596892136327631, 'z': 0.24214335300240858, 'ar': 2.2421334412937663, 'dec': 0.2445743387931569, 'R': 48.645349556323815, 'alt': 51.71929995560223}}</t>
+          <t>{'simbad': {'x': -0.0368630190597948, 'y': 0.03134599385533639, 'z': 0.998828587143469, 'ar': 2.2357774016238112, 'dec': 0.24589524027390391, 'ar_deg': 128.10060904377, 'dec_deg': 14.08875947005, 'pmra': -14.903, 'pmdec': -7.281}, 'proper motion': {'ar': 2.2357755840373223, 'dec': 0.24589435227502937, 'pmra': -14.903, 'pmdec': -7.281}, 'precession': {'x': -0.6033595437260216, 'y': 0.7598782826569134, 'z': 0.24195507132752367, 'ar': 2.241881074935383, 'dec': 0.24438028678224433, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.6033660087336156, 'y': 0.7598625455542614, 'z': 0.2419883703169735, 'ar': 2.24189637872714, 'dec': 0.24441460561405345, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.6034357291374369, 'y': 0.7598150769999924, 'z': 0.24196357073713706, 'ar': 2.24198307376274, 'dec': 0.24438904647388107, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.6032999480413795, 'y': 0.7598665402209973, 'z': 0.24214048349220763, 'ar': 2.241840497036777, 'dec': 0.2445713812695433, 'R': 47.20855412380547, 'alt': 52.552630649812045}}</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>08h33m51.548s</t>
+          <t>08h33m47.520s</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>+14°00'47.079"</t>
+          <t>+14°00'46.469"</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>2.242133441293766</v>
+        <v>2.241840497036776</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2445743387931569</v>
+        <v>0.2445713812695433</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2680,25 +2792,31 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>08h33m51.548s</t>
+          <t>08h33m47.520s</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>+14°00'47.079"</t>
+          <t>+14°00'46.469"</t>
         </is>
       </c>
       <c r="AD19" t="n">
-        <v>2.242133441293766</v>
+        <v>2.241840497036776</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.2445743387931569</v>
+        <v>0.2445713812695433</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.01001318268402329</v>
+        <v>0.5738644677640252</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.02218020164245413</v>
+        <v>1.270976650489992</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.0100158244226871</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.02218272726701956</v>
       </c>
     </row>
     <row r="20">
@@ -2753,31 +2871,31 @@
         <v>19</v>
       </c>
       <c r="Q20" t="n">
-        <v>126.9988684618379</v>
+        <v>126.9822126097868</v>
       </c>
       <c r="R20" t="n">
-        <v>15.52890657145676</v>
+        <v>15.52840321501625</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': -0.5647382179875747, 'y': -0.8184683464302945, 'z': 0.10573698991307642, 'ar': 2.2101195700291765, 'dec': 0.27230676297558, 'ar_deg': 126.63052358194, 'dec_deg': 15.60202825137, 'pmra': -8.027, 'pmdec': -7.438}, 'proper motion': {'ar': 2.210118591029553, 'dec': 0.2723058558123557, 'pmra': -8.027, 'pmdec': -7.438}, 'precession': {'x': -0.5796617674724909, 'y': 0.7696839370926795, 'z': 0.26754228135414476, 'ar': 2.2162890921875587, 'dec': 0.27084142319097715, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5796683608163254, 'y': 0.7696671925372757, 'z': 0.2675761652320751, 'ar': 2.2163050128870334, 'dec': 0.2708765891707048, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5797383912513648, 'y': 0.7696223762836488, 'z': 0.2675533510027282, 'ar': 2.2163910511353655, 'dec': 0.27085291165634057, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.57983087289747, 'y': 0.7694931752102081, 'z': 0.2677245079178768, 'ar': 2.216548400966257, 'dec': 0.2710305489065045, 'R': 48.17087551505514, 'alt': 51.99243433522016}}</t>
+          <t>{'simbad': {'x': -0.5647382179875747, 'y': -0.8184683464302945, 'z': 0.10573698991307642, 'ar': 2.2101195700291765, 'dec': 0.27230676297558, 'ar_deg': 126.63052358194, 'dec_deg': 15.60202825137, 'pmra': -8.027, 'pmdec': -7.438}, 'proper motion': {'ar': 2.2101185910473102, 'dec': 0.27230585582881045, 'pmra': -8.027, 'pmdec': -7.438}, 'precession': {'x': -0.57966167707805, 'y': 0.7696839962319216, 'z': 0.26754230706847365, 'ar': 2.216288980324629, 'dec': 0.27084144987815745, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5796682983169862, 'y': 0.769667249152875, 'z': 0.26757613777714867, 'ar': 2.2163049257244944, 'dec': 0.27087656067679694, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5797384504216968, 'y': 0.7696223484200997, 'z': 0.26755330294163887, 'ar': 2.2163911175844926, 'dec': 0.2708528617767954, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.579608572027761, 'y': 0.7696635780317003, 'z': 0.26771604338063104, 'ar': 2.2162577015082414, 'dec': 0.2710217636793065, 'R': 43.78100063279981, 'alt': 54.61677778896601}}</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>08h27m59.728s</t>
+          <t>08h27m55.731s</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>+15°31'44.064"</t>
+          <t>+15°31'42.252"</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>2.216548400966257</v>
+        <v>2.216257701508241</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2710305489065045</v>
+        <v>0.2710217636793065</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -2797,25 +2915,31 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>08h27m59.728s</t>
+          <t>08h27m55.731s</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>+15°31'44.064"</t>
+          <t>+15°31'42.252"</t>
         </is>
       </c>
       <c r="AD20" t="n">
-        <v>2.216548400966257</v>
+        <v>2.216257701508241</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.2710305489065045</v>
+        <v>0.2710217636793065</v>
       </c>
       <c r="AF20" t="n">
-        <v>-0.04017346434690072</v>
+        <v>-2.301673028463512</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.0214995518349303</v>
+        <v>1.231301104866972</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>-0.04017177265103744</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.02149025836337264</v>
       </c>
     </row>
     <row r="21">
@@ -2870,31 +2994,31 @@
         <v>20</v>
       </c>
       <c r="Q21" t="n">
-        <v>127.2425033504311</v>
+        <v>127.2256622125971</v>
       </c>
       <c r="R21" t="n">
-        <v>13.62774133276878</v>
+        <v>13.62727708215552</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.1474408182701135, 'y': 0.3962266759401283, 'z': 0.9062370696353554, 'ar': 2.214443488929406, 'dec': 0.23912175456853207, 'ar_deg': 126.87826588588, 'dec_deg': 13.70066732654, 'pmra': -5.113, 'pmdec': -2.704}, 'proper motion': {'ar': 2.2144428653309163, 'dec': 0.23912142477969658, 'pmra': -5.113, 'pmdec': -2.704}, 'precession': {'x': -0.5879807364472263, 'y': 0.7738585326253886, 'z': 0.23541797945326495, 'ar': 2.220542466075584, 'dec': 0.23764861252585495, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5879872572000713, 'y': 0.7738432184429103, 'z': 0.2354520304441129, 'ar': 2.2205573411819217, 'dec': 0.23768364837095185, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5880570340063263, 'y': 0.7737977210593316, 'z': 0.23542729586661612, 'ar': 2.22064282806705, 'dec': 0.23765819836758062, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5881519454774323, 'y': 0.7736691480419695, 'z': 0.23561268726264317, 'ar': 2.2208006319449383, 'dec': 0.2378489558669355, 'R': 50.486098949759494, 'alt': 50.678635728482}}</t>
+          <t>{'simbad': {'x': 0.1474408182701135, 'y': 0.3962266759401283, 'z': 0.9062370696353554, 'ar': 2.214443488929406, 'dec': 0.23912175456853207, 'ar_deg': 126.87826588588, 'dec_deg': 13.70066732654, 'pmra': -5.113, 'pmdec': -2.704}, 'proper motion': {'ar': 2.2144428653422277, 'dec': 0.23912142478567852, 'pmra': -5.113, 'pmdec': -2.704}, 'precession': {'x': -0.5879806470478047, 'y': 0.7738585926196273, 'z': 0.23541800552637096, 'ar': 2.2205423554887176, 'dec': 0.2376486393529577, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5879871953886445, 'y': 0.7738432737625441, 'z': 0.23545200298885505, 'ar': 2.2205572561059146, 'dec': 0.23768362012148786, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.588057091150873, 'y': 0.7737976899701835, 'z': 0.23542725531250877, 'ar': 2.2206428942349863, 'dec': 0.2376581566406103, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.587925667845277, 'y': 0.7738435121755921, 'z': 0.23560481266822275, 'ar': 2.220506698639953, 'dec': 0.23784085316517956, 'R': 46.53471836026236, 'alt': 52.94989331764668}}</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>08h28m58.201s</t>
+          <t>08h28m54.159s</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>+13°37'39.869"</t>
+          <t>+13°37'38.197"</t>
         </is>
       </c>
       <c r="V21" t="n">
-        <v>2.220800631944938</v>
+        <v>2.220506698639953</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2378489558669355</v>
+        <v>0.2378408531651796</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -2914,25 +3038,31 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>08h28m58.201s</t>
+          <t>08h28m54.159s</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>+13°37'39.869"</t>
+          <t>+13°37'38.197"</t>
         </is>
       </c>
       <c r="AD21" t="n">
-        <v>2.220800631944938</v>
+        <v>2.220506698639953</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.2378489558669355</v>
+        <v>0.2378408531651796</v>
       </c>
       <c r="AF21" t="n">
-        <v>-0.03265414685101176</v>
+        <v>-1.870813943519025</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.02149993983417581</v>
+        <v>1.231406802198185</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>-0.03265186300662621</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.02149210312981287</v>
       </c>
     </row>
     <row r="22">
@@ -2987,31 +3117,31 @@
         <v>21</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.7354608155922</v>
+        <v>126.7186893995974</v>
       </c>
       <c r="R22" t="n">
-        <v>14.37068230743318</v>
+        <v>14.37010490669799</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': -0.22907730931797657, 'y': -0.19517350752526685, 'z': 0.9536408591896222, 'ar': 2.205561392634795, 'dec': 0.2520753295398009, 'ar_deg': 126.36935925496999, 'dec_deg': 14.442852502, 'pmra': -5.395, 'pmdec': -11.049}, 'proper motion': {'ar': 2.2055607346426473, 'dec': 0.2520739819670038, 'pmra': -5.395, 'pmdec': -11.049}, 'precession': {'x': -0.57923318387345, 'y': 0.7765200111513832, 'z': 0.24800320760280833, 'ar': 2.2116905313918487, 'dec': 0.25061852412869673, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5792397650541523, 'y': 0.7765041774502707, 'z': 0.248037410449087, 'ar': 2.2117057493330297, 'dec': 0.25065383011646425, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5793097037923675, 'y': 0.7764596184837167, 'z': 0.2480135640567276, 'ar': 2.2117911190384842, 'dec': 0.25062921457475684, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5794062150490045, 'y': 0.7763298636312346, 'z': 0.24819424005583812, 'ar': 2.211951070264341, 'dec': 0.250815722022805, 'R': 50.01424421928734, 'alt': 50.942541437074965}}</t>
+          <t>{'simbad': {'x': -0.22907730931797657, 'y': -0.19517350752526685, 'z': 0.9536408591896222, 'ar': 2.205561392634795, 'dec': 0.2520753295398009, 'ar_deg': 126.36935925496999, 'dec_deg': 14.442852502, 'pmra': -5.395, 'pmdec': -11.049}, 'proper motion': {'ar': 2.2055607346545822, 'dec': 0.2520739819914469, 'pmra': -5.395, 'pmdec': -11.049}, 'precession': {'x': -0.579233093642263, 'y': 0.7765200702489246, 'z': 0.24800323330597612, 'ar': 2.2116904202589756, 'dec': 0.25061855066074684, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5792397026666075, 'y': 0.7765042328887689, 'z': 0.24803738258682778, 'ar': 2.2117056634957284, 'dec': 0.250653801355436, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.579309763339927, 'y': 0.7764595880025497, 'z': 0.24801352039344246, 'ar': 2.2117911871205735, 'dec': 0.2506291695032841, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5791804411216932, 'y': 0.7765014369529021, 'z': 0.2481844778227652, 'ar': 2.211658353835011, 'dec': 0.25080564447887255, 'R': 45.04986450905556, 'alt': 53.839984857215896}}</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>08h26m56.511s</t>
+          <t>08h26m52.485s</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>+14°22'14.456"</t>
+          <t>+14°22'12.378"</t>
         </is>
       </c>
       <c r="V22" t="n">
-        <v>2.211951070264341</v>
+        <v>2.211658353835011</v>
       </c>
       <c r="W22" t="n">
-        <v>0.250815722022805</v>
+        <v>0.2508056444788725</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -3031,25 +3161,31 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>08h26m56.511s</t>
+          <t>08h26m52.485s</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>+14°22'14.456"</t>
+          <t>+14°22'12.378"</t>
         </is>
       </c>
       <c r="AD22" t="n">
-        <v>2.211951070264341</v>
+        <v>2.211658353835011</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.250815722022805</v>
+        <v>0.2508056444788725</v>
       </c>
       <c r="AF22" t="n">
-        <v>-0.04989565189003153</v>
+        <v>-2.858701523764751</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.02130114059477697</v>
+        <v>1.21978674326019</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>-0.04989375392147382</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.02128929484206907</v>
       </c>
     </row>
     <row r="23">
@@ -3104,31 +3240,31 @@
         <v>22</v>
       </c>
       <c r="Q23" t="n">
-        <v>128.4052326446532</v>
+        <v>128.3885433203168</v>
       </c>
       <c r="R23" t="n">
-        <v>14.96481794476482</v>
+        <v>14.96463761530936</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.5659599511122138, 'y': -0.5447375490619484, 'z': 0.6188298121285383, 'ar': 2.2347022184121763, 'dec': 0.26250993104554515, 'ar_deg': 128.03900558354, 'dec_deg': 15.04071112918, 'pmra': -6.408, 'pmdec': -6.53}, 'proper motion': {'ar': 2.2347014368711786, 'dec': 0.26250913462502157, 'pmra': -6.408, 'pmdec': -6.53}, 'precession': {'x': -0.5999893604310781, 'y': 0.7572490147217761, 'z': 0.25804398282541935, 'ar': 2.240841489476151, 'dec': 0.2609970704404588, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5999958305493734, 'y': 0.7572325600883009, 'z': 0.25807722345353457, 'ar': 2.240857315511018, 'dec': 0.26103147644355784, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.6000655749831701, 'y': 0.7571854290995045, 'z': 0.2580533504520269, 'ar': 2.240944192468974, 'dec': 0.26100676645237986, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.6001504286633029, 'y': 0.7570593501222664, 'z': 0.25822587664233976, 'ar': 2.241094086438504, 'dec': 0.2611853450976771, 'R': 47.42356800323367, 'alt': 52.42673765062159}}</t>
+          <t>{'simbad': {'x': 0.5659599511122138, 'y': -0.5447375490619484, 'z': 0.6188298121285383, 'ar': 2.2347022184121763, 'dec': 0.26250993104554515, 'ar_deg': 128.03900558354, 'dec_deg': 15.04071112918, 'pmra': -6.408, 'pmdec': -6.53}, 'proper motion': {'ar': 2.234701436885355, 'dec': 0.26250913463946757, 'pmra': -6.408, 'pmdec': -6.53}, 'precession': {'x': -0.5999892717240772, 'y': 0.7572490759377926, 'z': 0.2580440094390308, 'ar': 2.240841378161851, 'dec': 0.26099709798698384, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5999957692161556, 'y': 0.7572326175818517, 'z': 0.25807719735158846, 'ar': 2.2408572287960684, 'dec': 0.26103144942638606, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.6000656282088168, 'y': 0.7571854023722556, 'z': 0.2580533051071488, 'ar': 2.2409442528281707, 'dec': 0.2610067195178613, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5999303888803491, 'y': 0.7572347690408827, 'z': 0.25822283604180657, 'ar': 2.240802802778902, 'dec': 0.26118219775494095, 'R': 45.87594624092013, 'alt': 53.34228821229139}}</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>08h33m37.256s</t>
+          <t>08h33m33.250s</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>+14°57'53.345"</t>
+          <t>+14°57'52.695"</t>
         </is>
       </c>
       <c r="V23" t="n">
-        <v>2.241094086438504</v>
+        <v>2.240802802778902</v>
       </c>
       <c r="W23" t="n">
-        <v>0.2611853450976771</v>
+        <v>0.2611821977549409</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -3148,25 +3284,31 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>08h33m37.256s</t>
+          <t>08h33m33.250s</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>+14°57'53.345"</t>
+          <t>+14°57'52.695"</t>
         </is>
       </c>
       <c r="AD23" t="n">
-        <v>2.241094086438504</v>
+        <v>2.240802802778902</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.2611853450976771</v>
+        <v>0.2611821977549409</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.008441142140835023</v>
+        <v>0.4837764659539943</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.02219056531359645</v>
+        <v>1.271546094118854</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.008443492174559451</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.02219266593324771</v>
       </c>
     </row>
     <row r="24">
@@ -3221,31 +3363,31 @@
         <v>24</v>
       </c>
       <c r="Q24" t="n">
-        <v>126.9954813203042</v>
+        <v>126.9787431369568</v>
       </c>
       <c r="R24" t="n">
-        <v>14.6472023959124</v>
+        <v>14.64668947897474</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': -0.31327171954340727, 'y': -0.4525051537149353, 'z': 0.8349250957994613, 'ar': 2.210092270235487, 'dec': 0.2569118828877962, 'ar_deg': 126.62895941898, 'dec_deg': 14.719966596229998, 'pmra': -3.704, 'pmdec': -2.061}, 'proper motion': {'ar': 2.2100918184833245, 'dec': 0.2569116315213798, 'pmra': -3.704, 'pmdec': -2.061}, 'precession': {'x': -0.5820250298646097, 'y': 0.772916936363709, 'z': 0.2526782026476338, 'ar': 2.2162300101475743, 'dec': 0.2554472829154281, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5820315993085915, 'y': 0.7729008647099066, 'z': 0.2527122291005366, 'ar': 2.2162454262821845, 'dec': 0.2554824507062562, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5821015380644431, 'y': 0.7728559316334549, 'z': 0.252688559934941, 'ar': 2.2163311057534467, 'dec': 0.25545798757956206, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5821958039016584, 'y': 0.7727267145182416, 'z': 0.2528665074483873, 'ar': 2.216489284194263, 'dec': 0.25564190801467335, 'R': 49.352245644309306, 'alt': 51.316104148169934}}</t>
+          <t>{'simbad': {'x': -0.31327171954340727, 'y': -0.4525051537149353, 'z': 0.8349250957994613, 'ar': 2.210092270235487, 'dec': 0.2569118828877962, 'ar_deg': 126.62895941898, 'dec_deg': 14.719966596229998, 'pmra': -3.704, 'pmdec': -2.061}, 'proper motion': {'ar': 2.210091818491519, 'dec': 0.25691163152593927, 'pmra': -3.704, 'pmdec': -2.061}, 'precession': {'x': -0.5820249397938174, 'y': 0.7729169957522537, 'z': 0.25267822845530924, 'ar': 2.2162298988593765, 'dec': 0.2554473095886395, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5820315370317887, 'y': 0.7729009206263564, 'z': 0.2527122015165552, 'ar': 2.2162453400993125, 'dec': 0.25548242219690387, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.582101596714524, 'y': 0.7728559020613732, 'z': 0.2526885152738493, 'ar': 2.2163311725612416, 'dec': 0.2554579414205016, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5819713990776934, 'y': 0.7728985704667548, 'z': 0.2528578462812621, 'ar': 2.216197147784049, 'dec': 0.25563295592532204, 'R': 44.92834220017735, 'alt': 53.91373187563473}}</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>08h27m58.916s</t>
+          <t>08h27m54.898s</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>+14°38'49.929"</t>
+          <t>+14°38'48.082"</t>
         </is>
       </c>
       <c r="V24" t="n">
-        <v>2.216489284194263</v>
+        <v>2.216197147784049</v>
       </c>
       <c r="W24" t="n">
-        <v>0.2556419080146733</v>
+        <v>0.255632955925322</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -3265,25 +3407,31 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>08h27m58.916s</t>
+          <t>08h27m54.898s</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>+14°38'49.929"</t>
+          <t>+14°38'48.082"</t>
         </is>
       </c>
       <c r="AD24" t="n">
-        <v>2.216489284194263</v>
+        <v>2.216197147784049</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.2556419080146733</v>
+        <v>0.255632955925322</v>
       </c>
       <c r="AF24" t="n">
-        <v>-0.04073368536091326</v>
+        <v>-2.333758177713179</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.02145755784668171</v>
+        <v>1.228877754058772</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>-0.04073176414643791</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.02144796291283868</v>
       </c>
     </row>
     <row r="25">
@@ -3338,31 +3486,31 @@
         <v>25</v>
       </c>
       <c r="Q25" t="n">
-        <v>128.2826625058624</v>
+        <v>128.2660084453548</v>
       </c>
       <c r="R25" t="n">
-        <v>15.35843090527455</v>
+        <v>15.35822350263468</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.6061370162607964, 'y': -0.7479967542382773, 'z': 0.2703678478803668, 'ar': 2.232547003500373, 'dec': 0.26937740110309377, 'ar_deg': 127.91552086515001, 'dec_deg': 15.43418817941, 'pmra': -4.224, 'pmdec': -4.006}, 'proper motion': {'ar': 2.232546488327281, 'dec': 0.2693769125180069, 'pmra': -4.224, 'pmdec': -4.006}, 'precession': {'x': -0.5972551869470462, 'y': 0.7571210736865619, 'z': 0.26467701344196287, 'ar': 2.238701599651599, 'dec': 0.2678689757489592, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5972616775185182, 'y': 0.7571043312757114, 'z': 0.2647102569439344, 'ar': 2.2387176369054, 'dec': 0.2679034488171452, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5973314918756825, 'y': 0.7570574527265451, 'z': 0.264686799982105, 'ar': 2.2388045844235194, 'dec': 0.2678791242266875, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5974163517997666, 'y': 0.7569311031373485, 'z': 0.2648565795020668, 'ar': 2.238954833951978, 'dec': 0.26805518723709426, 'R': 47.03132089933961, 'alt': 52.65671836859005}}</t>
+          <t>{'simbad': {'x': 0.6061370162607964, 'y': -0.7479967542382773, 'z': 0.2703678478803668, 'ar': 2.232547003500373, 'dec': 0.26937740110309377, 'ar_deg': 127.91552086515001, 'dec_deg': 15.43418817941, 'pmra': -4.224, 'pmdec': -4.006}, 'proper motion': {'ar': 2.2325464883366255, 'dec': 0.26937691252686913, 'pmra': -4.224, 'pmdec': -4.006}, 'precession': {'x': -0.5972550979562335, 'y': 0.7571211346275667, 'z': 0.2646770399289588, 'ar': 2.2387014880600193, 'dec': 0.26786900321549095, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5972616159880186, 'y': 0.7571043889704007, 'z': 0.2647102307602345, 'ar': 2.23871754975479, 'dec': 0.26790342166486925, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.597331545837377, 'y': 0.7570574265623188, 'z': 0.2646867530390758, 'ar': 2.2388046451594423, 'dec': 0.26787907554748747, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5971969045308488, 'y': 0.7571054738352132, 'z': 0.26485308891445675, 'ar': 2.238664165762295, 'dec': 0.2680515673781513, 'R': 45.23949408739946, 'alt': 53.725179566463204}}</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>08h33m7.839s</t>
+          <t>08h33m3.842s</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>+15°21'30.351"</t>
+          <t>+15°21'29.605"</t>
         </is>
       </c>
       <c r="V25" t="n">
-        <v>2.238954833951978</v>
+        <v>2.238664165762295</v>
       </c>
       <c r="W25" t="n">
-        <v>0.2680551872370943</v>
+        <v>0.2680515673781513</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -3382,25 +3530,31 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>08h33m7.839s</t>
+          <t>08h33m3.842s</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>+15°21'30.351"</t>
+          <t>+15°21'29.605"</t>
         </is>
       </c>
       <c r="AD25" t="n">
-        <v>2.238954833951978</v>
+        <v>2.238664165762295</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.2680551872370943</v>
+        <v>0.2680515673781513</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.004385265782112402</v>
+        <v>0.2513830202512963</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.02213848072663729</v>
+        <v>1.268506292160138</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.004387461386992704</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.02213961138045955</v>
       </c>
     </row>
     <row r="26">
@@ -3455,31 +3609,31 @@
         <v>26</v>
       </c>
       <c r="Q26" t="n">
-        <v>128.0740531558289</v>
+        <v>128.0572955115711</v>
       </c>
       <c r="R26" t="n">
-        <v>14.2989695838745</v>
+        <v>14.29870861610525</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.1071824300331153, 'y': -0.20866196437422216, 'z': 0.9720967602639602, 'ar': 2.2289429277018606, 'dec': 0.2508728181959371, 'ar_deg': 127.70902253285, 'dec_deg': 14.37395367718, 'pmra': -12.594, 'pmdec': -10.036}, 'proper motion': {'ar': 2.2289413916957237, 'dec': 0.25087159417199006, 'pmra': -12.594, 'pmdec': -10.036}, 'precession': {'x': -0.597410398663626, 'y': 0.7630160425893575, 'z': 0.24679411321958947, 'ar': 2.2350597971701593, 'dec': 0.24937063756895247, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5974168754104774, 'y': 0.7630001297516633, 'z': 0.24682763008570838, 'ar': 2.2350751827484583, 'dec': 0.24940522442553367, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5974866002371192, 'y': 0.7629534184804687, 'z': 0.24680324909947104, 'ar': 2.2351615502239155, 'dec': 0.24938006507192134, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5975748199344543, 'y': 0.7628266060373385, 'z': 0.2469815857546045, 'ar': 2.2353139139434486, 'dec': 0.24956409888113357, 'R': 48.666288839114735, 'alt': 51.707292605071366}}</t>
+          <t>{'simbad': {'x': 0.1071824300331153, 'y': -0.20866196437422216, 'z': 0.9720967602639602, 'ar': 2.2289429277018606, 'dec': 0.2508728181959371, 'ar_deg': 127.70902253285, 'dec_deg': 14.37395367718, 'pmra': -12.594, 'pmdec': -10.036}, 'proper motion': {'ar': 2.228941391723585, 'dec': 0.25087159419419214, 'pmra': -12.594, 'pmdec': -10.036}, 'precession': {'x': -0.5974103098763246, 'y': 0.7630161035326699, 'z': 0.24679413972640415, 'ar': 2.235059686260652, 'dec': 0.2493706649218488, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5974168140250007, 'y': 0.7630001863922535, 'z': 0.24682760357302871, 'ar': 2.2350750968393727, 'dec': 0.24940519706634434, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5974866543945249, 'y': 0.7629533899277259, 'z': 0.2468032062559742, 'ar': 2.2351616123900264, 'dec': 0.24938002086078007, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5973523793142859, 'y': 0.7630022355038445, 'z': 0.24697717211049436, 'ar': 2.235021437876272, 'dec': 0.24955954413431844, 'R': 46.43469593679361, 'alt': 53.00921516173895}}</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>08h32m17.773s</t>
+          <t>08h32m13.751s</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>+14°17'56.291"</t>
+          <t>+14°17'55.351"</t>
         </is>
       </c>
       <c r="V26" t="n">
-        <v>2.235313913943449</v>
+        <v>2.235021437876272</v>
       </c>
       <c r="W26" t="n">
-        <v>0.2495640988811336</v>
+        <v>0.2495595441343184</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -3499,25 +3653,31 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>08h32m17.773s</t>
+          <t>08h32m13.751s</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>+14°17'56.291"</t>
+          <t>+14°17'55.351"</t>
         </is>
       </c>
       <c r="AD26" t="n">
-        <v>2.235313913943449</v>
+        <v>2.235021437876272</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.2495640988811336</v>
+        <v>0.2495595441343184</v>
       </c>
       <c r="AF26" t="n">
-        <v>-0.003428227665025929</v>
+        <v>-0.1962846635114772</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.02199588210319242</v>
+        <v>1.260230215753143</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>-0.003425813649444452</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.02199516659801086</v>
       </c>
     </row>
     <row r="27">
@@ -3572,31 +3732,31 @@
         <v>27</v>
       </c>
       <c r="Q27" t="n">
-        <v>127.4444540751663</v>
+        <v>127.4275979176042</v>
       </c>
       <c r="R27" t="n">
-        <v>13.46493644757841</v>
+        <v>13.46451934155411</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.08636387260627168, 'y': 0.557226978545978, 'z': 0.8258567526447718, 'ar': 2.217977280471308, 'dec': 0.2362842539441994, 'ar_deg': 127.08073722691, 'dec_deg': 13.5380905164, 'pmra': -13.483, 'pmdec': 17.619}, 'proper motion': {'ar': 2.2179756360397738, 'dec': 0.23628640281605306, 'pmra': -13.483, 'pmdec': 17.619}, 'precession': {'x': -0.5911096833977488, 'y': 0.7723088688701374, 'z': 0.23265500909703674, 'ar': 2.2240681265029965, 'dec': 0.23480671537767892, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5911161836974724, 'y': 0.7722936597476218, 'z': 0.23268897800403213, 'ar': 2.2240829388888446, 'dec': 0.2348416428601789, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5911859059470683, 'y': 0.7722478084370974, 'z': 0.2326640216570758, 'ar': 2.224168521704704, 'dec': 0.234815982236541, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5912799000196864, 'y': 0.7721197049323836, 'z': 0.23285025464413395, 'ar': 2.224325337018357, 'dec': 0.2350074745820321, 'R': 50.494079299938925, 'alt': 50.67418917842355}}</t>
+          <t>{'simbad': {'x': 0.08636387260627168, 'y': 0.557226978545978, 'z': 0.8258567526447718, 'ar': 2.217977280471308, 'dec': 0.2362842539441994, 'ar_deg': 127.08073722691, 'dec_deg': 13.5380905164, 'pmra': -13.483, 'pmdec': 17.619}, 'proper motion': {'ar': 2.217975636069601, 'dec': 0.2362864027770755, 'pmra': -13.483, 'pmdec': 17.619}, 'precession': {'x': -0.5911095942995321, 'y': 0.7723089291810872, 'z': 0.23265503526510042, 'ar': 2.2240680160633506, 'dec': 0.23480674228407222, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5911161221007211, 'y': 0.7722937151229431, 'z': 0.23268895069213724, 'ar': 2.224082853987927, 'dec': 0.2348416147774468, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.591185962225049, 'y': 0.772247777364189, 'z': 0.23266398179372946, 'ar': 2.2241685870737067, 'dec': 0.23481594124836333, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5910537505400277, 'y': 0.7722949694833912, 'z': 0.2328431748692969, 'ar': 2.2240311415696636, 'dec': 0.23500019470857814, 'R': 46.95285860750389, 'alt': 52.70288992436703}}</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>08h29m46.669s</t>
+          <t>08h29m42.624s</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>+13°27'53.771"</t>
+          <t>+13°27'52.270"</t>
         </is>
       </c>
       <c r="V27" t="n">
-        <v>2.224325337018357</v>
+        <v>2.224031141569664</v>
       </c>
       <c r="W27" t="n">
-        <v>0.2350074745820321</v>
+        <v>0.2350001947085781</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -3616,25 +3776,31 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>08h29m46.669s</t>
+          <t>08h29m42.624s</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>+13°27'53.771"</t>
+          <t>+13°27'52.270"</t>
         </is>
       </c>
       <c r="AD27" t="n">
-        <v>2.224325337018357</v>
+        <v>2.224031141569664</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.2350074745820321</v>
+        <v>0.2350001947085781</v>
       </c>
       <c r="AF27" t="n">
-        <v>-0.02572153873931837</v>
+        <v>-1.473597849768026</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.02158692827861725</v>
+        <v>1.236486317539544</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>-0.02571913432876082</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.02158075739692516</v>
       </c>
     </row>
     <row r="28">
@@ -3689,31 +3855,31 @@
         <v>28</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.3703690793764</v>
+        <v>127.3535870230453</v>
       </c>
       <c r="R28" t="n">
-        <v>14.15184228278907</v>
+        <v>14.15141340082927</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': -0.020027066076909503, 'y': -0.08582175259343988, 'z': 0.9961092025506749, 'ar': 2.21665975436581, 'dec': 0.24828022303839306, 'ar_deg': 127.00524854166669, 'dec_deg': 14.225408916666671, 'pmra': -21.8, 'pmdec': -28.0}, 'proper motion': {'ar': 2.216657095565288, 'dec': 0.2482768080652446, 'pmra': -21.8, 'pmdec': -28.0}, 'precession': {'x': -0.5883749658605409, 'y': 0.7707992638990231, 'z': 0.2443018508348468, 'ar': 2.2227748196239214, 'dec': 0.24679966251950616, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5883814925076806, 'y': 0.7707835340923176, 'z': 0.24433575842801142, 'ar': 2.222790012256987, 'dec': 0.24683462979731274, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.588451318976775, 'y': 0.7707379224481373, 'z': 0.24431148170895034, 'ar': 2.2228757908680987, 'dec': 0.24680959434765323, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5885442588245042, 'y': 0.7706095557829132, 'z': 0.2444924701105854, 'ar': 2.223032309915497, 'dec': 0.2469962430576197, 'R': 49.620564099819724, 'alt': 51.16422586112554}}</t>
+          <t>{'simbad': {'x': -0.020027066076909503, 'y': -0.08582175259343988, 'z': 0.9961092025506749, 'ar': 2.21665975436581, 'dec': 0.24828022303839306, 'ar_deg': 127.00524854166669, 'dec_deg': 14.225408916666671, 'pmra': -21.8, 'pmdec': -28.0}, 'proper motion': {'ar': 2.2166570956135145, 'dec': 0.24827680812718747, 'pmra': -21.8, 'pmdec': -28.0}, 'precession': {'x': -0.5883748763996426, 'y': 0.7707993239008092, 'z': 0.24430187697961078, 'ar': 2.2227747087464325, 'dec': 0.24679968948123118, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5883814306597146, 'y': 0.7707835899294514, 'z': 0.24433573121894148, 'ar': 2.2227899266195026, 'dec': 0.2468346017377778, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5884513758804515, 'y': 0.7707378924798186, 'z': 0.2443114391922148, 'ar': 2.222875856264184, 'dec': 0.24680955050226264, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5883196307738348, 'y': 0.7707833633523943, 'z': 0.24448521187448036, 'ar': 2.2227394077772633, 'dec': 0.24698875765531886, 'R': 45.9472246543814, 'alt': 53.29963933985296}}</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>08h29m28.889s</t>
+          <t>08h29m24.861s</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>+14°09'6.632"</t>
+          <t>+14°09'5.088"</t>
         </is>
       </c>
       <c r="V28" t="n">
-        <v>2.223032309915497</v>
+        <v>2.222739407777263</v>
       </c>
       <c r="W28" t="n">
-        <v>0.2469962430576197</v>
+        <v>0.2469887576553189</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3733,25 +3899,31 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>08h29m28.889s</t>
+          <t>08h29m24.861s</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>+14°09'6.632"</t>
+          <t>+14°09'5.088"</t>
         </is>
       </c>
       <c r="AD28" t="n">
-        <v>2.223032309915497</v>
+        <v>2.222739407777263</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.2469962430576197</v>
+        <v>0.2469887576553189</v>
       </c>
       <c r="AF28" t="n">
-        <v>-0.02795784311290772</v>
+        <v>-1.601740879116974</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.02161503904250386</v>
+        <v>1.238071224794471</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>-0.02795565210437969</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.02160841924686237</v>
       </c>
     </row>
     <row r="29">
@@ -3806,31 +3978,31 @@
         <v>30</v>
       </c>
       <c r="Q29" t="n">
-        <v>128.2452788714556</v>
+        <v>128.2285823728347</v>
       </c>
       <c r="R29" t="n">
-        <v>14.90133016624845</v>
+        <v>14.90111225922774</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.44747607987322224, 'y': -0.5954344157743525, 'z': 0.6672503386681412, 'ar': 2.2319090797426266, 'dec': 0.2614058554806852, 'ar_deg': 127.87897052618001, 'dec_deg': 14.97745225905, 'pmra': 8.653, 'pmdec': -90.523}, 'proper motion': {'ar': 2.231910135091293, 'dec': 0.26139481499445943, 'pmra': 8.653, 'pmdec': -90.523}, 'precession': {'x': -0.598049148175265, 'y': 0.7591458273293911, 'z': 0.2569724289008736, 'ar': 2.2380490242726787, 'dec': 0.2598881182701106, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5980556289565682, 'y': 0.7591294369157295, 'z': 0.25700576390690455, 'ar': 2.238064787457981, 'dec': 0.2599226117641972, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5981253971419785, 'y': 0.7590825500520628, 'z': 0.25698188944010886, 'ar': 2.2381515198036337, 'dec': 0.25989790755834413, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5982113522258684, 'y': 0.7589561032407635, 'z': 0.2571552282604682, 'ar': 2.2383023664452177, 'dec': 0.26007727432778943, 'R': 47.67502990921388, 'alt': 52.28003549502664}}</t>
+          <t>{'simbad': {'x': 0.44747607987322224, 'y': -0.5954344157743525, 'z': 0.6672503386681412, 'ar': 2.2319090797426266, 'dec': 0.2614058554806852, 'ar_deg': 127.87897052618001, 'dec_deg': 14.97745225905, 'pmra': 8.653, 'pmdec': -90.523}, 'proper motion': {'ar': 2.2319101350721504, 'dec': 0.2613948151947186, 'pmra': 8.653, 'pmdec': -90.523}, 'precession': {'x': -0.5980490592676969, 'y': 0.7591458883296154, 'z': 0.2569724556081099, 'ar': 2.2380489129463195, 'dec': 0.2598881459053741, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5980555674678946, 'y': 0.7591294941915897, 'z': 0.25700573781352815, 'ar': 2.2380647008021834, 'dec': 0.2599225847638766, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5981254509062572, 'y': 0.7590825229155501, 'z': 0.2569818444605567, 'ar': 2.2381515808796366, 'dec': 0.2598978610157148, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.597990765474886, 'y': 0.7591311633799661, 'z': 0.25715155296466424, 'ar': 2.2380109575707277, 'dec': 0.2600734711328148, 'R': 45.80148770761964, 'alt': 53.386889795435465}}</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>08h32m58.867s</t>
+          <t>08h32m54.860s</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>+14°54'4.789"</t>
+          <t>+14°54'4.004"</t>
         </is>
       </c>
       <c r="V29" t="n">
-        <v>2.238302366445218</v>
+        <v>2.238010957570728</v>
       </c>
       <c r="W29" t="n">
-        <v>0.2600772743277894</v>
+        <v>0.2600734711328148</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3850,25 +4022,31 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>08h32m58.867s</t>
+          <t>08h32m54.860s</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>+14°54'4.789"</t>
+          <t>+14°54'4.004"</t>
         </is>
       </c>
       <c r="AD29" t="n">
-        <v>2.238302366445218</v>
+        <v>2.238010957570728</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.2600772743277894</v>
+        <v>0.2600734711328148</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.002842651593185419</v>
+        <v>0.1630042457220497</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.02210799425521187</v>
+        <v>1.266739305658323</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0.00284496078257965</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.02210877164816457</v>
       </c>
     </row>
     <row r="30">
@@ -3923,31 +4101,31 @@
         <v>32</v>
       </c>
       <c r="Q30" t="n">
-        <v>127.0875443191252</v>
+        <v>127.0708582439568</v>
       </c>
       <c r="R30" t="n">
-        <v>15.17458218475059</v>
+        <v>15.17409602834019</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': -0.4408884942023129, 'y': -0.7799828030124967, 'z': 0.44412178812211617, 'ar': 2.211681635148468, 'dec': 0.2661237801283161, 'ar_deg': 126.7200233206, 'dec_deg': 15.247769429419998, 'pmra': -10.35, 'pmdec': -7.565}, 'proper motion': {'ar': 2.2116803728280363, 'dec': 0.2661228574757494, 'pmra': -10.35, 'pmdec': -7.565}, 'precession': {'x': -0.581839229939203, 'y': 0.7700913961085301, 'z': 0.261576665900019, 'ar': 2.2178372352705304, 'dec': 0.2646553835994458, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5818458070645984, 'y': 0.7700749124703761, 'z': 0.26161056168489927, 'ar': 2.2178529676730214, 'dec': 0.2646905022833262, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5819157912962224, 'y': 0.7700299081643698, 'z': 0.26158737043760966, 'ar': 2.2179389290214826, 'dec': 0.2646664743014014, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5820084047249745, 'y': 0.7699008836642385, 'z': 0.2617610478327787, 'ar': 2.2180960866429493, 'dec': 0.2648464217383723, 'R': 48.543889359132734, 'alt': 51.777536533608846}}</t>
+          <t>{'simbad': {'x': -0.4408884942023129, 'y': -0.7799828030124967, 'z': 0.44412178812211617, 'ar': 2.211681635148468, 'dec': 0.2661237801283161, 'ar_deg': 126.7200233206, 'dec_deg': 15.247769429419998, 'pmra': -10.35, 'pmdec': -7.565}, 'proper motion': {'ar': 2.211680372850933, 'dec': 0.266122857492485, 'pmra': -10.35, 'pmdec': -7.565}, 'precession': {'x': -0.5818391397716298, 'y': 0.7700914554669788, 'z': 0.26157669171116954, 'ar': 2.2178371236594936, 'dec': 0.26465541034168905, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5818457447235126, 'y': 0.7700749688858128, 'z': 0.26161053427309766, 'ar': 2.217852880902015, 'dec': 0.26469047388242095, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5819158498942297, 'y': 0.7700298797335006, 'z': 0.26158732377446553, 'ar': 2.2179389952177466, 'dec': 0.26466642595481993, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5817855029934953, 'y': 0.7700721196736513, 'z': 0.261752858643292, 'ar': 2.217804859692027, 'dec': 0.26483793670833117, 'R': 44.32357612134502, 'alt': 54.282779849607735}}</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>08h28m21.011s</t>
+          <t>08h28m17.006s</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>+15°10'28.496"</t>
+          <t>+15°10'26.746"</t>
         </is>
       </c>
       <c r="V30" t="n">
-        <v>2.218096086642949</v>
+        <v>2.217804859692027</v>
       </c>
       <c r="W30" t="n">
-        <v>0.2648464217383723</v>
+        <v>0.2648379367083312</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -3967,25 +4145,31 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>08h28m21.011s</t>
+          <t>08h28m17.006s</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>+15°10'28.496"</t>
+          <t>+15°10'26.746"</t>
         </is>
       </c>
       <c r="AD30" t="n">
-        <v>2.218096086642949</v>
+        <v>2.217804859692027</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.2648464217383723</v>
+        <v>0.2648379367083312</v>
       </c>
       <c r="AF30" t="n">
-        <v>-0.03727255361862269</v>
+        <v>-2.135455953798612</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.02153390868699837</v>
+        <v>1.233304957296159</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>-0.03727073742510169</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.02152523218598604</v>
       </c>
     </row>
     <row r="31">
@@ -4040,31 +4224,31 @@
         <v>33</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.7724349967772</v>
+        <v>127.7557968232288</v>
       </c>
       <c r="R31" t="n">
-        <v>15.59572222526105</v>
+        <v>15.59539809855164</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.16896122777270442, 'y': -0.9849099451561231, 'z': 0.03747670532614534, 'ar': 2.2236262376446034, 'dec': 0.27350143269805705, 'ar_deg': 127.40439863159, 'dec_deg': 15.670477784380001, 'pmra': 2.983, 'pmdec': -2.564}, 'proper motion': {'ar': 2.2236266014612074, 'dec': 0.2735011199840873, 'pmra': 2.983, 'pmdec': -2.564}, 'precession': {'x': -0.5898112067992449, 'y': 0.7615379198997935, 'z': 0.2686684516066489, 'ar': 2.2297940136128793, 'dec': 0.27201038986545295, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5898177431333551, 'y': 0.7615210474813248, 'z': 0.26870192431023204, 'ar': 2.2298101044457304, 'dec': 0.2720451404146122, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5898876721659277, 'y': 0.761475010268997, 'z': 0.2686788844745603, 'ar': 2.229896767003582, 'dec': 0.27202122097979226, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5899752191917262, 'y': 0.7613475176276427, 'z': 0.26884790894091043, 'ar': 2.2300496839841917, 'dec': 0.27219670205726204, 'R': 47.255859423397354, 'alt': 52.52489687284949}}</t>
+          <t>{'simbad': {'x': 0.16896122777270442, 'y': -0.9849099451561231, 'z': 0.03747670532614534, 'ar': 2.2236262376446034, 'dec': 0.27350143269805705, 'ar_deg': 127.40439863159, 'dec_deg': 15.670477784380001, 'pmra': 2.983, 'pmdec': -2.564}, 'proper motion': {'ar': 2.2236266014546078, 'dec': 0.2735011199897595, 'pmra': 2.983, 'pmdec': -2.564}, 'precession': {'x': -0.589811117169165, 'y': 0.7615379800912581, 'z': 0.2686684777605815, 'ar': 2.2297939017823394, 'dec': 0.2720104170177001, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5898176811571919, 'y': 0.7615211048956576, 'z': 0.26870189763537217, 'ar': 2.2298100170775395, 'dec': 0.27204511272128545, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.589887728291068, 'y': 0.7614749837478927, 'z': 0.26867883641580276, 'ar': 2.2298968299283826, 'dec': 0.272021171086447, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5897550371506342, 'y': 0.7615200114133134, 'z': 0.2688424601370117, 'ar': 2.2297592930742542, 'dec': 0.2721910449789892, 'R': 44.43422299399192, 'alt': 54.2150052096594}}</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>08h31m5.384s</t>
+          <t>08h31m1.391s</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>+15°35'44.600"</t>
+          <t>+15°35'43.433"</t>
         </is>
       </c>
       <c r="V31" t="n">
-        <v>2.230049683984192</v>
+        <v>2.229759293074254</v>
       </c>
       <c r="W31" t="n">
-        <v>0.272196702057262</v>
+        <v>0.2721910449789892</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -4084,25 +4268,31 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>08h31m5.384s</t>
+          <t>08h31m1.391s</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>+15°35'44.600"</t>
+          <t>+15°35'43.433"</t>
         </is>
       </c>
       <c r="AD31" t="n">
-        <v>2.230049683984192</v>
+        <v>2.229759293074254</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.272196702057262</v>
+        <v>0.2721910449789892</v>
       </c>
       <c r="AF31" t="n">
-        <v>-0.01323980063502095</v>
+        <v>-0.7584730790281924</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.02188920084171214</v>
+        <v>1.253987435002738</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-0.01323785251678111</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0.02188620951943617</v>
       </c>
     </row>
     <row r="32">
@@ -4157,31 +4347,31 @@
         <v>35</v>
       </c>
       <c r="Q32" t="n">
-        <v>127.8337496932511</v>
+        <v>127.8169944008027</v>
       </c>
       <c r="R32" t="n">
-        <v>14.34715014801932</v>
+        <v>14.34683260380692</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.06505975383906515, 'y': -0.27302914923048943, 'z': 0.9598032673943527, 'ar': 2.224743773182895, 'dec': 0.2517054998670033, 'ar_deg': 127.46842870139, 'dec_deg': 14.421662822609996, 'pmra': -7.74, 'pmdec': -12.643}, 'proper motion': {'ar': 2.2247428291867464, 'dec': 0.2517039578846635, 'pmra': -7.74, 'pmdec': -12.643}, 'precession': {'x': -0.5940767248940672, 'y': 0.7653514714768287, 'z': 0.2476085015652578, 'ar': 2.2308645644381264, 'dec': 0.2502111107472558, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.594083221655439, 'y': 0.7653355456221209, 'z': 0.24764213768013166, 'ar': 2.2308799407743973, 'dec': 0.2502458281039249, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5941529967202066, 'y': 0.7652892256642698, 'z': 0.24761788620893468, 'ar': 2.230966146191426, 'dec': 0.25022079703179795, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5942426117505418, 'y': 0.7651618678706629, 'z': 0.24779635658454074, 'ar': 2.2311198273175226, 'dec': 0.2504050083609289, 'R': 48.85582840184914, 'alt': 51.59878206835649}}</t>
+          <t>{'simbad': {'x': 0.06505975383906515, 'y': -0.27302914923048943, 'z': 0.9598032673943527, 'ar': 2.224743773182895, 'dec': 0.2517054998670033, 'ar_deg': 127.46842870139, 'dec_deg': 14.421662822609996, 'pmra': -7.74, 'pmdec': -12.643}, 'proper motion': {'ar': 2.224742829203869, 'dec': 0.2517039579126329, 'pmra': -7.74, 'pmdec': -12.643}, 'precession': {'x': -0.5940766358233232, 'y': 0.7653515320852489, 'z': 0.24760852792988558, 'ar': 2.2308644534574253, 'dec': 0.2502111379592609, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5940831600711932, 'y': 0.7653356020807162, 'z': 0.24764211093344513, 'ar': 2.2308798548300013, 'dec': 0.2502458004973368, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5941530518532255, 'y': 0.7652891968151131, 'z': 0.24761784307997103, 'ar': 2.2309662094005893, 'dec': 0.25022075251653, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5940196682574386, 'y': 0.7653366973868654, 'z': 0.2477909872378083, 'ar': 2.230827392297164, 'dec': 0.25039946616890185, 'R': 46.13438172715696, 'alt': 53.18787763933828}}</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>08h31m20.100s</t>
+          <t>08h31m16.079s</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>+14°20'49.741"</t>
+          <t>+14°20'48.597"</t>
         </is>
       </c>
       <c r="V32" t="n">
-        <v>2.231119827317523</v>
+        <v>2.230827392297164</v>
       </c>
       <c r="W32" t="n">
-        <v>0.2504050083609289</v>
+        <v>0.2503994661689019</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -4201,25 +4391,31 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>08h31m20.100s</t>
+          <t>08h31m16.079s</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>+14°20'49.741"</t>
+          <t>+14°20'48.597"</t>
         </is>
       </c>
       <c r="AD32" t="n">
-        <v>2.231119827317523</v>
+        <v>2.230827392297164</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.2504050083609289</v>
+        <v>0.2503994661689019</v>
       </c>
       <c r="AF32" t="n">
-        <v>-0.01175871958118746</v>
+        <v>-0.6735925884946568</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.02187493205849755</v>
+        <v>1.253185946024034</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>-0.01175640848626304</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.02187222089783934</v>
       </c>
     </row>
     <row r="33">
@@ -4274,31 +4470,31 @@
         <v>36</v>
       </c>
       <c r="Q33" t="n">
-        <v>127.4522074847023</v>
+        <v>127.4354122561243</v>
       </c>
       <c r="R33" t="n">
-        <v>14.01532205657008</v>
+        <v>14.01491149185967</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.0070830379546384945, 'y': 0.04780938458657604, 'z': 0.9988313638041139, 'ar': 2.2180939293281137, 'dec': 0.24589624238261917, 'ar_deg': 127.08742071409, 'dec_deg': 14.088816886649997, 'pmra': -21.631, 'pmdec': 0.086}, 'proper motion': {'ar': 2.2180912911393933, 'dec': 0.24589625287146527, 'pmra': -21.631, 'pmdec': 0.086}, 'precession': {'x': -0.5898279075623155, 'y': 0.770417979061288, 'z': 0.24199003491834428, 'ar': 2.2242035537682385, 'dec': 0.2444163212045896, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5898344239104059, 'y': 0.7704023458321533, 'z': 0.2420239201124442, 'ar': 2.2242186809544178, 'dec': 0.24445124451112532, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5899042199822601, 'y': 0.7703565801133394, 'z': 0.24199948496474294, 'ar': 2.224304470896506, 'dec': 0.24442606073359124, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5899969375574436, 'y': 0.770228408150952, 'z': 0.24218136375470267, 'ar': 2.224460659543015, 'dec': 0.24461351561453082, 'R': 49.71987171774974, 'alt': 51.108175765115}}</t>
+          <t>{'simbad': {'x': 0.0070830379546384945, 'y': 0.04780938458657604, 'z': 0.9988313638041139, 'ar': 2.2180939293281137, 'dec': 0.24589624238261917, 'ar_deg': 127.08742071409, 'dec_deg': 14.088816886649997, 'pmra': -21.631, 'pmdec': 0.086}, 'proper motion': {'ar': 2.218091291187246, 'dec': 0.245896252871275, 'pmra': -21.631, 'pmdec': 0.086}, 'precession': {'x': -0.5898278182516202, 'y': 0.770418039223636, 'z': 0.24199006106727153, 'ar': 2.2242034429891056, 'dec': 0.2444163481545024, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5898343621690714, 'y': 0.770402401648149, 'z': 0.24202389291011966, 'ar': 2.224218595458586, 'dec': 0.24445121647530382, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5899042764970175, 'y': 0.7703565500321586, 'z': 0.24199944296026926, 'ar': 2.2243045359901648, 'dec': 0.2444260174423451, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5897721884670843, 'y': 0.7704027000173013, 'z': 0.24217441135842088, 'ar': 2.224167527505704, 'dec': 0.24460634990854174, 'R': 46.21022657148839, 'alt': 53.14267810747226}}</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>08h29m48.530s</t>
+          <t>08h29m44.499s</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>+14°00'55.159"</t>
+          <t>+14°00'53.681"</t>
         </is>
       </c>
       <c r="V33" t="n">
-        <v>2.224460659543015</v>
+        <v>2.224167527505704</v>
       </c>
       <c r="W33" t="n">
-        <v>0.2446135156145308</v>
+        <v>0.2446063499085417</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -4318,25 +4514,31 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>08h29m48.530s</t>
+          <t>08h29m44.499s</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>+14°00'55.159"</t>
+          <t>+14°00'53.681"</t>
         </is>
       </c>
       <c r="AD33" t="n">
-        <v>2.224460659543015</v>
+        <v>2.224167527505704</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.2446135156145308</v>
+        <v>0.2446063499085417</v>
       </c>
       <c r="AF33" t="n">
-        <v>-0.02518311422180863</v>
+        <v>-1.442756740127123</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.02164982352374251</v>
+        <v>1.240101505766379</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>-0.02518085542055849</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.02164385433456276</v>
       </c>
     </row>
     <row r="34">
@@ -4391,31 +4593,31 @@
         <v>40</v>
       </c>
       <c r="Q34" t="n">
-        <v>128.4661126173663</v>
+        <v>128.4494899008446</v>
       </c>
       <c r="R34" t="n">
-        <v>15.70412794004607</v>
+        <v>15.70396403341304</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.7585808503099729, 'y': -0.6475273855401089, 'z': -0.0725491455400395, 'ar': 2.235744367764143, 'dec': 0.2754230126735046, 'ar_deg': 128.09871634303, 'dec_deg': 15.780576206969998, 'pmra': -52.86, 'pmdec': -30.599}, 'proper motion': {'ar': 2.2357379207826926, 'dec': 0.27541928071766997, 'pmra': -52.86, 'pmdec': -30.599}, 'precession': {'x': -0.598672444337394, 'y': 0.7539395070078637, 'z': 0.27049311296931305, 'ar': 2.2419041897401035, 'dec': 0.2739052017090943, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5986789299926171, 'y': 0.7539224838678322, 'z': 0.27052620409389844, 'ar': 2.2419204615112527, 'dec': 0.2739395743394892, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5987487468511943, 'y': 0.7538753629956363, 'z': 0.2705030040726387, 'ar': 2.2420076916223968, 'dec': 0.2739154758261579, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.598831867151734, 'y': 0.7537494625904093, 'z': 0.27066980350278524, 'ar': 2.242156642410871, 'dec': 0.27408873870823863, 'R': 46.3898429413115, 'alt': 53.03584655030007}}</t>
+          <t>{'simbad': {'x': 0.7585808503099729, 'y': -0.6475273855401089, 'z': -0.0725491455400395, 'ar': 2.235744367764143, 'dec': 0.2754230126735046, 'ar_deg': 128.09871634303, 'dec_deg': 15.780576206969998, 'pmra': -52.86, 'pmdec': -30.599}, 'proper motion': {'ar': 2.2357379208996315, 'dec': 0.27541928078536243, 'pmra': -52.86, 'pmdec': -30.599}, 'precession': {'x': -0.5986723554846572, 'y': 0.7539395680165668, 'z': 0.2704931395755624, 'ar': 2.2419040780546484, 'dec': 0.27390522934557915, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5986788685793948, 'y': 0.7539225419275598, 'z': 0.2705261781971985, 'ar': 2.241920374050547, 'dec': 0.2739395474397691, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5987488004000723, 'y': 0.7538753377486124, 'z': 0.2705029559060118, 'ar': 2.2420077514887318, 'dec': 0.2739154257943002, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5986136447852654, 'y': 0.7539237710479626, 'z': 0.27066704957515364, 'ar': 2.2418665212769437, 'dec': 0.27408587799782635, 'R': 44.97308700041947, 'alt': 53.886562125429556}}</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>08h33m51.867s</t>
+          <t>08h33m47.878s</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>+15°42'14.861"</t>
+          <t>+15°42'14.271"</t>
         </is>
       </c>
       <c r="V34" t="n">
-        <v>2.242156642410872</v>
+        <v>2.241866521276944</v>
       </c>
       <c r="W34" t="n">
-        <v>0.2740887387082386</v>
+        <v>0.2740858779978264</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -4435,25 +4637,31 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>08h33m51.867s</t>
+          <t>08h33m47.878s</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>+15°42'14.861"</t>
+          <t>+15°42'14.271"</t>
         </is>
       </c>
       <c r="AD34" t="n">
-        <v>2.242156642410872</v>
+        <v>2.241866521276944</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.2740887387082386</v>
+        <v>0.2740858779978264</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.0109589201244753</v>
+        <v>0.6280238997559024</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.0222276441203057</v>
+        <v>1.27370225595895</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0.01096108483195531</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0.02223029805656324</v>
       </c>
     </row>
     <row r="35">
@@ -4508,31 +4716,31 @@
         <v>41</v>
       </c>
       <c r="Q35" t="n">
-        <v>127.0582744461038</v>
+        <v>127.0415577510003</v>
       </c>
       <c r="R35" t="n">
-        <v>14.85517055317808</v>
+        <v>14.85467447858078</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': -0.3674287794647128, 'y': -0.6087879448089847, 'z': 0.7031168681494735, 'ar': 2.2111835126907136, 'dec': 0.26054609990307315, 'ar_deg': 126.69148300609, 'dec_deg': 14.92819189304, 'pmra': -21.53, 'pmdec': -9.005}, 'proper motion': {'ar': 2.2111808868202893, 'dec': 0.26054500162331595, 'pmra': -21.53, 'pmdec': -9.005}, 'precession': {'x': -0.582315404956444, 'y': 0.7715409834701608, 'z': 0.2561899294982339, 'ar': 2.217326256409737, 'dec': 0.25907851551420186, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5823219754897728, 'y': 0.7715247465218764, 'z': 0.2562238910914494, 'ar': 2.2173418012657455, 'dec': 0.2591136498216373, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5823919293918242, 'y': 0.771479743827569, 'z': 0.2562004009423423, 'ar': 2.2174276114724223, 'dec': 0.25908934850867904, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5824853686090694, 'y': 0.7713506554980956, 'z': 0.2563766011534874, 'ar': 2.2175852309870856, 'dec': 0.25927163709826495, 'R': 49.00306535929319, 'alt': 51.5147110105729}}</t>
+          <t>{'simbad': {'x': -0.3674287794647128, 'y': -0.6087879448089847, 'z': 0.7031168681494735, 'ar': 2.2111835126907136, 'dec': 0.26054609990307315, 'ar_deg': 126.69148300609, 'dec_deg': 14.92819189304, 'pmra': -21.53, 'pmdec': -9.005}, 'proper motion': {'ar': 2.211180886867919, 'dec': 0.2605450016432372, 'pmra': -21.53, 'pmdec': -9.005}, 'precession': {'x': -0.5823153148984377, 'y': 0.7715410428622225, 'z': 0.2561899553335521, 'ar': 2.2173261450312456, 'dec': 0.2590785422415048, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5823219132303649, 'y': 0.7715248026391857, 'z': 0.25622386361206323, 'ar': 2.2173417148815484, 'dec': 0.2591136213932392, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5823919879358296, 'y': 0.7714797147200569, 'z': 0.2562003555103152, 'ar': 2.217427677953654, 'dec': 0.25908930150794096, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5822616306350963, 'y': 0.771522341161564, 'z': 0.25636823238992995, 'ar': 2.2172934696174784, 'dec': 0.25926297896320655, 'R': 44.71366502250766, 'alt': 54.044345648255174}}</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>08h28m13.986s</t>
+          <t>08h28m9.974s</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>+14°51'18.614"</t>
+          <t>+14°51'16.828"</t>
         </is>
       </c>
       <c r="V35" t="n">
-        <v>2.217585230987086</v>
+        <v>2.217293469617478</v>
       </c>
       <c r="W35" t="n">
-        <v>0.259271637098265</v>
+        <v>0.2592629789632065</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -4552,25 +4760,31 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>08h28m13.986s</t>
+          <t>08h28m9.974s</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>+14°51'18.614"</t>
+          <t>+14°51'16.828"</t>
         </is>
       </c>
       <c r="AD35" t="n">
-        <v>2.217585230987086</v>
+        <v>2.217293469617478</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.259271637098265</v>
+        <v>0.2592629789632065</v>
       </c>
       <c r="AF35" t="n">
-        <v>-0.03844940185365786</v>
+        <v>-2.202880192565516</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.0215023799037061</v>
+        <v>1.231479258517556</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>-0.03844751238723496</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.02149336773114978</v>
       </c>
     </row>
     <row r="36">
@@ -4625,31 +4839,31 @@
         <v>42</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.0666154537724</v>
+        <v>128.0498303300078</v>
       </c>
       <c r="R36" t="n">
-        <v>14.03699644497051</v>
+        <v>14.03673235073142</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': -0.011427656193249402, 'y': 0.0226335919740072, 'z': 0.9996785129171694, 'ar': 2.228821423035214, 'dec': 0.24629753616141753, 'ar_deg': 127.70206082826, 'dec_deg': 14.11180932652, 'pmra': -4.43, 'pmdec': -1.338}, 'proper motion': {'ar': 2.2288208827376765, 'dec': 0.2462973729744864, 'pmra': -4.43, 'pmdec': -1.338}, 'precession': {'x': -0.5980008504764102, 'y': 0.7639745242607846, 'z': 0.24235904998575628, 'ar': 2.234929946360808, 'dec': 0.24479665787050428, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.598007320046275, 'y': 0.7639588130535986, 'z': 0.24239260947646324, 'ar': 2.2349451791273904, 'dec': 0.24483124877784151, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5980770111423109, 'y': 0.7639120687683114, 'z': 0.24236798454663774, 'ar': 2.235031441435328, 'dec': 0.24480586699678109, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5981658264188154, 'y': 0.7637852643927789, 'z': 0.24254837455886719, 'ar': 2.2351841015537794, 'dec': 0.24499180505547447, 'R': 49.032081601165146, 'alt': 51.498165789401135}}</t>
+          <t>{'simbad': {'x': -0.011427656193249402, 'y': 0.0226335919740072, 'z': 0.9996785129171694, 'ar': 2.228821423035214, 'dec': 0.24629753616141753, 'ar_deg': 127.70206082826, 'dec_deg': 14.11180932652, 'pmra': -4.43, 'pmdec': -1.338}, 'proper motion': {'ar': 2.2288208827474767, 'dec': 0.24629737297744636, 'pmra': -4.43, 'pmdec': -1.338}, 'precession': {'x': -0.598000761777051, 'y': 0.7639745852788998, 'z': 0.24235907650013813, 'ar': 2.234929835602139, 'dec': 0.2447966851996606, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.598007258718377, 'y': 0.7639588694896106, 'z': 0.24239258290692017, 'ar': 2.2349450934949937, 'dec': 0.24483122139159255, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.598077065178629, 'y': 0.7639120397326111, 'z': 0.24236794272114334, 'ar': 2.2350315037398127, 'dec': 0.2448058238859103, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5979427345838882, 'y': 0.7639613480630342, 'z': 0.24254390287956712, 'ar': 2.234891145878733, 'dec': 0.2449871957414667, 'R': 46.78074787851804, 'alt': 52.804365831037124}}</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>08h32m15.988s</t>
+          <t>08h32m11.959s</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>+14°02'13.187"</t>
+          <t>+14°02'12.236"</t>
         </is>
       </c>
       <c r="V36" t="n">
-        <v>2.235184101553779</v>
+        <v>2.234891145878733</v>
       </c>
       <c r="W36" t="n">
-        <v>0.2449918050554744</v>
+        <v>0.2449871957414667</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -4669,25 +4883,31 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>08h32m15.988s</t>
+          <t>08h32m11.959s</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>+14°02'13.187"</t>
+          <t>+14°02'12.236"</t>
         </is>
       </c>
       <c r="AD36" t="n">
-        <v>2.235184101553779</v>
+        <v>2.234891145878733</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.2449918050554744</v>
+        <v>0.2449871957414667</v>
       </c>
       <c r="AF36" t="n">
-        <v>-0.003821508738020896</v>
+        <v>-0.2188139950710877</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.02197385186079751</v>
+        <v>1.258962353093887</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>-0.003819024663433124</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.02197303822014375</v>
       </c>
     </row>
     <row r="37">
@@ -4742,31 +4962,31 @@
         <v>45</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5326026141007</v>
+        <v>127.5158614178146</v>
       </c>
       <c r="R37" t="n">
-        <v>14.52560939021266</v>
+        <v>14.52522197753406</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': -0.03027664697402691, 'y': -0.44516150699126156, 'z': 0.894938298063771, 'ar': 2.2194757695228513, 'dec': 0.2548123176731798, 'ar_deg': 127.16659432521001, 'dec_deg': 14.59967037062, 'pmra': 9.516, 'pmdec': -30.097}, 'proper motion': {'ar': 2.2194769301258686, 'dec': 0.25480864694293515, 'pmra': 9.516, 'pmdec': -30.097}, 'precession': {'x': -0.5895721636890612, 'y': 0.767848733338825, 'z': 0.25062519129760513, 'ar': 2.225607117515716, 'dec': 0.2533260038159921, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5895786887768507, 'y': 0.7678327008774481, 'z': 0.25065895795565096, 'ar': 2.225622549551945, 'dec': 0.25336088385080374, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5896485364558801, 'y': 0.7677868904912294, 'z': 0.2506349820859963, 'ar': 2.225708595450789, 'dec': 0.2533361174003621, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5897396654967998, 'y': 0.7676588508793056, 'z': 0.25081271021697876, 'ar': 2.225863819253585, 'dec': 0.2535197097178167, 'R': 48.93561698978769, 'alt': 51.55319945070984}}</t>
+          <t>{'simbad': {'x': -0.03027664697402691, 'y': -0.44516150699126156, 'z': 0.894938298063771, 'ar': 2.2194757695228513, 'dec': 0.2548123176731798, 'ar_deg': 127.16659432521001, 'dec_deg': 14.59967037062, 'pmra': 9.516, 'pmdec': -30.097}, 'proper motion': {'ar': 2.2194769301048165, 'dec': 0.2548086470095171, 'pmra': 9.516, 'pmdec': -30.097}, 'precession': {'x': -0.5895720741946148, 'y': 0.7678487935023113, 'z': 0.2506252174999643, 'ar': 2.2256070063437585, 'dec': 0.25332603088219086, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5895786268887407, 'y': 0.7678327572103841, 'z': 0.25065893096134867, 'ar': 2.2256224634070563, 'dec': 0.2533608559663016, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5896485928551953, 'y': 0.7677868615134694, 'z': 0.250634938169411, 'ar': 2.2257086598879434, 'dec': 0.25333607203581626, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.589516371615452, 'y': 0.7678324786944213, 'z': 0.25080616471556877, 'ar': 2.22557163025767, 'dec': 0.25351294809101116, 'R': 45.60361109281515, 'alt': 53.50566845550948}}</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>08h30m7.825s</t>
+          <t>08h30m3.807s</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>+14°31'32.194"</t>
+          <t>+14°31'30.799"</t>
         </is>
       </c>
       <c r="V37" t="n">
-        <v>2.225863819253585</v>
+        <v>2.22557163025767</v>
       </c>
       <c r="W37" t="n">
-        <v>0.2535197097178167</v>
+        <v>0.2535129480910112</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -4786,25 +5006,31 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>08h30m7.825s</t>
+          <t>08h30m3.807s</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>+14°31'32.194"</t>
+          <t>+14°31'30.799"</t>
         </is>
       </c>
       <c r="AD37" t="n">
-        <v>2.225863819253585</v>
+        <v>2.22557163025767</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.2535197097178167</v>
+        <v>0.2535129480910112</v>
       </c>
       <c r="AF37" t="n">
-        <v>-0.02213421955515793</v>
+        <v>-1.268074136539894</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.02172841724406382</v>
+        <v>1.244649910214479</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>-0.02213206884200529</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.02172323896789446</v>
       </c>
     </row>
     <row r="38">
@@ -4859,31 +5085,31 @@
         <v>48</v>
       </c>
       <c r="Q38" t="n">
-        <v>127.9810185715527</v>
+        <v>127.9643850563301</v>
       </c>
       <c r="R38" t="n">
-        <v>15.62309172667307</v>
+        <v>15.62281583889303</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.3695902619209287, 'y': -0.9291440869068783, 'z': 0.009711027710933032, 'ar': 2.227268576024385, 'dec': 0.2739861857366933, 'ar_deg': 127.61308924831, 'dec_deg': 15.6982520876, 'pmra': -0.114, 'pmdec': 3.881}, 'proper motion': {'ar': 2.227268562120566, 'dec': 0.2739866590763643, 'pmra': -0.114, 'pmdec': 3.881}, 'precession': {'x': -0.5925012310275013, 'y': 0.7592836748114207, 'z': 0.26912932280924046, 'ar': 2.233435456143937, 'dec': 0.2724888848021911, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5925077520669009, 'y': 0.7592667609603656, 'z': 0.2691626821113632, 'ar': 2.2334515982688727, 'dec': 0.2725235222472699, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5925776493947319, 'y': 0.759220396676846, 'z': 0.26913958963271556, 'ar': 2.2335384305146384, 'dec': 0.2724995449575363, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5926638658414373, 'y': 0.7590933767303751, 'z': 0.26930797895710207, 'ar': 2.2336901541296053, 'dec': 0.2726743899715311, 'R': 47.00046175545843, 'alt': 52.67487091101642}}</t>
+          <t>{'simbad': {'x': 0.3695902619209287, 'y': -0.9291440869068783, 'z': 0.009711027710933032, 'ar': 2.227268576024385, 'dec': 0.2739861857366933, 'ar_deg': 127.61308924831, 'dec_deg': 15.6982520876, 'pmra': -0.114, 'pmdec': 3.881}, 'proper motion': {'ar': 2.2272685621208184, 'dec': 0.27398665906777864, 'pmra': -0.114, 'pmdec': 3.881}, 'precession': {'x': -0.5925011416145801, 'y': 0.7592837352764027, 'z': 0.26912934906868297, 'ar': 2.233435344329826, 'dec': 0.27248891206761755, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5925076902431906, 'y': 0.7592668185905795, 'z': 0.2691626556378487, 'ar': 2.2334515108483464, 'dec': 0.27252349475930465, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5925777047216683, 'y': 0.7592203705460917, 'z': 0.26913954152939734, 'ar': 2.233538492494023, 'dec': 0.27249949501125975, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5924442664919918, 'y': 0.7592664231005417, 'z': 0.2693033417038751, 'ar': 2.2333998445227903, 'dec': 0.2726695748214034, 'R': 44.60144193385674, 'alt': 54.11279474601065}}</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>08h31m55.444s</t>
+          <t>08h31m51.452s</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>+15°37'23.130"</t>
+          <t>+15°37'22.137"</t>
         </is>
       </c>
       <c r="V38" t="n">
-        <v>2.233690154129605</v>
+        <v>2.23339984452279</v>
       </c>
       <c r="W38" t="n">
-        <v>0.2726743899715311</v>
+        <v>0.2726695748214034</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -4903,25 +5129,31 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>08h31m55.444s</t>
+          <t>08h31m51.452s</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>+15°37'23.130"</t>
+          <t>+15°37'22.137"</t>
         </is>
       </c>
       <c r="AD38" t="n">
-        <v>2.233690154129605</v>
+        <v>2.23339984452279</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.2726743899715311</v>
+        <v>0.2726695748214034</v>
       </c>
       <c r="AF38" t="n">
-        <v>-0.005966990832301899</v>
+        <v>-0.3417679544480023</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.02199254697248654</v>
+        <v>1.26000607149623</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>-0.00596497608292364</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.02199125454272829</v>
       </c>
     </row>
     <row r="39">
@@ -4976,31 +5208,31 @@
         <v>49</v>
       </c>
       <c r="Q39" t="n">
-        <v>127.1214501311146</v>
+        <v>127.1045866937209</v>
       </c>
       <c r="R39" t="n">
-        <v>13.45045065813272</v>
+        <v>13.44995546579636</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.26452808957792817, 'y': 0.5119079225655615, 'z': 0.8172974786690967, 'ar': 2.212336517890249, 'dec': 0.23602219756504547, 'ar_deg': 126.75754533778002, 'dec_deg': 13.52307579188, 'pmra': -11.473, 'pmdec': -5.989}, 'proper motion': {'ar': 2.2123351186050013, 'dec': 0.23602146712668165, 'pmra': -11.473, 'pmdec': -5.989}, 'precession': {'x': -0.5867808379269502, 'y': 0.7756769662473827, 'z': 0.2324080297128372, 'ar': 2.2184290684259915, 'dec': 0.23455277520327614, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5867873625038535, 'y': 0.7756618008201446, 'z': 0.23244216905334056, 'ar': 2.218443825362905, 'dec': 0.23458787579820523, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5868571329426706, 'y': 0.7756164657314786, 'z': 0.23241730486458778, 'ar': 2.218529155525427, 'dec': 0.23456231148444825, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.58695322597352, 'y': 0.7754876637677008, 'z': 0.2326043719782383, 'ar': 2.218687854697727, 'dec': 0.2347546498614542, 'R': 50.86756175303351, 'alt': 50.46671301571245}}</t>
+          <t>{'simbad': {'x': 0.26452808957792817, 'y': 0.5119079225655615, 'z': 0.8172974786690967, 'ar': 2.212336517890249, 'dec': 0.23602219756504547, 'ar_deg': 126.75754533778002, 'dec_deg': 13.52307579188, 'pmra': -11.473, 'pmdec': -5.989}, 'proper motion': {'ar': 2.212335118630383, 'dec': 0.23602146713993083, 'pmra': -11.473, 'pmdec': -5.989}, 'precession': {'x': -0.5867807484853417, 'y': 0.7756770261095984, 'z': 0.23240805573979512, 'ar': 2.2184289579552856, 'dec': 0.23455280196295766, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5867873006664174, 'y': 0.7756618558685662, 'z': 0.23244214146137815, 'ar': 2.218443740511799, 'dec': 0.23458784742922273, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5868571905072655, 'y': 0.7756164341314582, 'z': 0.23241726496781687, 'ar': 2.2185292223266253, 'dec': 0.23456227046439088, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.5867261698404165, 'y': 0.775661987008325, 'z': 0.23259596629067192, 'ar': 2.218393532192003, 'dec': 0.23474600712475396, 'R': 46.66129483228178, 'alt': 52.87495376554147}}</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>08h28m29.148s</t>
+          <t>08h28m25.101s</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>+13°27'1.622"</t>
+          <t>+13°26'59.840"</t>
         </is>
       </c>
       <c r="V39" t="n">
-        <v>2.218687854697727</v>
+        <v>2.218393532192003</v>
       </c>
       <c r="W39" t="n">
-        <v>0.2347546498614542</v>
+        <v>0.234746007124754</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -5020,25 +5252,31 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>08h28m29.148s</t>
+          <t>08h28m25.101s</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>+13°27'1.622"</t>
+          <t>+13°26'59.840"</t>
         </is>
       </c>
       <c r="AD39" t="n">
-        <v>2.218687854697727</v>
+        <v>2.218393532192003</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.2347546498614542</v>
+        <v>0.234746007124754</v>
       </c>
       <c r="AF39" t="n">
-        <v>-0.03693923620922357</v>
+        <v>-2.11633144504286</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.02140841655616407</v>
+        <v>1.22610119322113</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>-0.03693695177948733</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.02139950278433989</v>
       </c>
     </row>
     <row r="40">
@@ -5093,31 +5331,31 @@
         <v>56</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.1293816662578</v>
+        <v>128.1127656104022</v>
       </c>
       <c r="R40" t="n">
-        <v>15.81235186927947</v>
+        <v>15.81211100621931</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>{'simbad': {'x': 0.49469444444048255, 'y': -0.8504273171058467, 'z': -0.1790273302037263, 'ar': 2.229856356844195, 'dec': 0.27729723066709144, 'ar_deg': 127.76135816759, 'dec_deg': 15.88796098789, 'pmra': -28.815, 'pmdec': -6.217}, 'proper motion': {'ar': 2.229852842470935, 'dec': 0.2772964724210891, 'pmra': -28.815, 'pmdec': -6.217}, 'precession': {'x': -0.5939136101814243, 'y': 0.7570425931773505, 'z': 0.2723107338254953, 'ar': 2.23602553136663, 'dec': 0.2757937058220536, 'ang_zeta': 0.002825519109399084, 'ang_theta': 0.002444244113566627, 'ang_z': 0.0028000549245528225}, 'nutation': {'x': -0.5939201248036472, 'y': 0.7570255210246362, 'z': 0.27234398445825475, 'ar': 2.236041809844572, 'dec': 0.2758282625375972, 'dpsi': 8.113940744394941e-06, 'deps': 4.645414995476592e-05, 'epsm': 0.4090357070498338, 'w': -6.309731453221625}, 'aberration': {'x': -0.5939900157178267, 'y': 0.7569789466512704, 'z': 0.2723210156309439, 'ar': 2.236128834706085, 'dec': 0.2758043914600836, 'lambda_s': 5.883274728095756, 'epsilon_m': 0.40903064453804044, 'omega_bar': 4.939617868570952}, 'refraction': {'x': -0.5940749860087952, 'y': 0.7568522822818502, 'z': 0.2724876764248317, 'ar': 2.236279578620657, 'dec': 0.2759776026028068, 'R': 46.599247730897126, 'alt': 52.91167043533012}}</t>
+          <t>{'simbad': {'x': 0.49469444444048255, 'y': -0.8504273171058467, 'z': -0.1790273302037263, 'ar': 2.229856356844195, 'dec': 0.27729723066709144, 'ar_deg': 127.76135816759, 'dec_deg': 15.88796098789, 'pmra': -28.815, 'pmdec': -6.217}, 'proper motion': {'ar': 2.229852842534681, 'dec': 0.2772964724348427, 'pmra': -28.815, 'pmdec': -6.217}, 'precession': {'x': -0.5939135209005283, 'y': 0.7570426537439974, 'z': 0.2723107601689363, 'ar': 2.2360254195114173, 'dec': 0.2757937332001295, 'ang_zeta': 0.002825468089766308, 'ang_theta': 0.0024441997808703204, 'ang_z': 0.0028000038962164623}, 'nutation': {'x': -0.5939200630848137, 'y': 0.7570255788990906, 'z': 0.2723439581812449, 'ar': 2.236041722252202, 'dec': 0.2758282352282945, 'dpsi': 8.148268637051283e-06, 'deps': 4.6395348959580916e-05, 'epsm': 0.4090357080854956, 'w': -6.30957741704691}, 'aberration': {'x': -0.5939900706363229, 'y': 0.7569789210996591, 'z': 0.2723209668686055, 'ar': 2.2361288960012, 'dec': 0.27580434078245847, 'lambda_s': 5.8804075961351145, 'epsilon_m': 0.4090306455733715, 'omega_bar': 4.939617842846957}, 'refraction': {'x': -0.593856177181417, 'y': 0.7570254363682651, 'z': 0.27248363164584927, 'ar': 2.2359895737372804, 'dec': 0.2759733987493605, 'R': 44.5030157487616, 'alt': 54.17292499952032}}</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>08h32m31.052s</t>
+          <t>08h32m27.064s</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>+15°48'44.467"</t>
+          <t>+15°48'43.600"</t>
         </is>
       </c>
       <c r="V40" t="n">
-        <v>2.236279578620656</v>
+        <v>2.235989573737281</v>
       </c>
       <c r="W40" t="n">
-        <v>0.2759776026028068</v>
+        <v>0.2759733987493605</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -5137,25 +5375,31 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>08h32m31.052s</t>
+          <t>08h32m27.064s</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>+15°48'44.467"</t>
+          <t>+15°48'43.600"</t>
         </is>
       </c>
       <c r="AD40" t="n">
-        <v>2.236279578620656</v>
+        <v>2.235989573737281</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.2759776026028068</v>
+        <v>0.2759733987493605</v>
       </c>
       <c r="AF40" t="n">
-        <v>-0.0007033634776583142</v>
+        <v>-0.04018430130366824</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.02206249958240081</v>
+        <v>1.264084432678223</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>-0.0007013483653624604</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.02206243537343959</v>
       </c>
     </row>
   </sheetData>
